--- a/03_内部設計/022-クラス仕様書/dao/CategoriesDAOのクラス仕様書.xlsx
+++ b/03_内部設計/022-クラス仕様書/dao/CategoriesDAOのクラス仕様書.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D6BF2A-AEB5-4661-B59C-E1A39F51954C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A080868D-772C-45E1-B45A-24EEA6619A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" tabRatio="727" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
     <sheet name="メソッド仕様（DAO）" sheetId="2" r:id="rId2"/>
     <sheet name="メソッド仕様（selectAll）" sheetId="7" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス仕様!$A$1:$BI$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（DAO）'!$A$1:$BI$33</definedName>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -51,9 +48,6 @@
   </si>
   <si>
     <t>作成者</t>
-  </si>
-  <si>
-    <t>幕張　太郎</t>
   </si>
   <si>
     <t>作成日</t>
@@ -142,49 +136,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コンストラクタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
-    <t>con</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Connection</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベース接続用のコネクションインスタンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sql</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラスフィールド[con]に引数で受け取った値を設定する。</t>
-    <rPh sb="14" eb="16">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セッテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -362,38 +314,11 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>全ての商品カテゴリーを検索し、結果を返す。</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>selectAll</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>List&lt;CategoriesDTO&gt;</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>SELECT category_id, category_name FROM categories;</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>"SELECT category_id, category_name FROM categories;"</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -459,6 +384,44 @@
   <si>
     <t>3.4.2) categoryをresultに追加する。</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SELECT category_id, category_name FROM categories ORDER BY category_id;</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>"SELECT category_id, category_name FROM categories ORDER BY category_id;"</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>全ての商品カテゴリーを検索し、結果をリストで返す。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>デフォルトコンストラクタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品検索</t>
   </si>
 </sst>
 </file>
@@ -988,110 +951,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1171,6 +1032,108 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1191,46 +1154,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="クラス仕様"/>
-      <sheetName val="メソッド仕様（DAO）"/>
-      <sheetName val="メソッド仕様（selectByName）"/>
-      <sheetName val="メソッド仕様（selectByNameCate）"/>
-      <sheetName val="メソッド仕様（selectByManu）"/>
-      <sheetName val="メソッド仕様（selectByManuCate）"/>
-      <sheetName val="メソッド仕様（selectByColo）"/>
-      <sheetName val="メソッド仕様（selectByColoCate）"/>
-      <sheetName val="メソッド仕様（selectByIId）"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="AE1" t="str">
-            <v>商品検索</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5" t="str">
-            <v>ItemsDAO</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1556,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:BI19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BD2" sqref="BD2:BI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1566,85 +1489,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="51" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="52" t="s">
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="51" t="s">
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="52" t="s">
-        <v>46</v>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="80" t="s">
+        <v>38</v>
       </c>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="51" t="s">
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="52" t="s">
-        <v>44</v>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="80" t="s">
+        <v>36</v>
       </c>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="51" t="s">
-        <v>6</v>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BA1" s="79" t="s">
+        <v>5</v>
       </c>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="58">
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="87">
         <v>45565</v>
       </c>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
+      <c r="BE1" s="87"/>
+      <c r="BF1" s="87"/>
+      <c r="BG1" s="87"/>
+      <c r="BH1" s="87"/>
+      <c r="BI1" s="87"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -1844,78 +1767,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="51" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52" t="str">
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="80" t="str">
         <f>G5</f>
         <v>CategoriesDAO</v>
       </c>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="51" t="s">
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="86"/>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="86"/>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="51" t="s">
-        <v>10</v>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="88">
+        <v>45566</v>
       </c>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
+      <c r="BE2" s="88"/>
+      <c r="BF2" s="88"/>
+      <c r="BG2" s="88"/>
+      <c r="BH2" s="88"/>
+      <c r="BI2" s="88"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -2115,916 +2042,916 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="83"/>
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="83"/>
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="83"/>
+      <c r="BC4" s="83"/>
+      <c r="BD4" s="83"/>
+      <c r="BE4" s="83"/>
+      <c r="BF4" s="83"/>
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="83"/>
+      <c r="BI4" s="84"/>
+    </row>
+    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="54" t="s">
-        <v>47</v>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="82" t="s">
+        <v>37</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="55"/>
-      <c r="AZ4" s="55"/>
-      <c r="BA4" s="55"/>
-      <c r="BB4" s="55"/>
-      <c r="BC4" s="55"/>
-      <c r="BD4" s="55"/>
-      <c r="BE4" s="55"/>
-      <c r="BF4" s="55"/>
-      <c r="BG4" s="55"/>
-      <c r="BH4" s="55"/>
-      <c r="BI4" s="56"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
+      <c r="AI5" s="83"/>
+      <c r="AJ5" s="83"/>
+      <c r="AK5" s="83"/>
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="83"/>
+      <c r="AN5" s="83"/>
+      <c r="AO5" s="83"/>
+      <c r="AP5" s="83"/>
+      <c r="AQ5" s="83"/>
+      <c r="AR5" s="83"/>
+      <c r="AS5" s="83"/>
+      <c r="AT5" s="83"/>
+      <c r="AU5" s="83"/>
+      <c r="AV5" s="83"/>
+      <c r="AW5" s="83"/>
+      <c r="AX5" s="83"/>
+      <c r="AY5" s="83"/>
+      <c r="AZ5" s="83"/>
+      <c r="BA5" s="83"/>
+      <c r="BB5" s="83"/>
+      <c r="BC5" s="83"/>
+      <c r="BD5" s="83"/>
+      <c r="BE5" s="83"/>
+      <c r="BF5" s="83"/>
+      <c r="BG5" s="83"/>
+      <c r="BH5" s="83"/>
+      <c r="BI5" s="84"/>
     </row>
-    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55"/>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="55"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="55"/>
-      <c r="AT5" s="55"/>
-      <c r="AU5" s="55"/>
-      <c r="AV5" s="55"/>
-      <c r="AW5" s="55"/>
-      <c r="AX5" s="55"/>
-      <c r="AY5" s="55"/>
-      <c r="AZ5" s="55"/>
-      <c r="BA5" s="55"/>
-      <c r="BB5" s="55"/>
-      <c r="BC5" s="55"/>
-      <c r="BD5" s="55"/>
-      <c r="BE5" s="55"/>
-      <c r="BF5" s="55"/>
-      <c r="BG5" s="55"/>
-      <c r="BH5" s="55"/>
-      <c r="BI5" s="56"/>
-    </row>
-    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="54" t="s">
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM6" s="81"/>
+      <c r="AN6" s="81"/>
+      <c r="AO6" s="81"/>
+      <c r="AP6" s="81"/>
+      <c r="AQ6" s="81"/>
+      <c r="AR6" s="81"/>
+      <c r="AS6" s="81"/>
+      <c r="AT6" s="81"/>
+      <c r="AU6" s="81"/>
+      <c r="AV6" s="81"/>
+      <c r="AW6" s="81"/>
+      <c r="AX6" s="81"/>
+      <c r="AY6" s="81"/>
+      <c r="AZ6" s="81"/>
+      <c r="BA6" s="81"/>
+      <c r="BB6" s="81"/>
+      <c r="BC6" s="81"/>
+      <c r="BD6" s="81"/>
+      <c r="BE6" s="81"/>
+      <c r="BF6" s="81"/>
+      <c r="BG6" s="81"/>
+      <c r="BH6" s="81"/>
+      <c r="BI6" s="81"/>
+    </row>
+    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-    </row>
-    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49" t="s">
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49" t="s">
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="76"/>
+      <c r="AD8" s="76"/>
+      <c r="AE8" s="76"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49" t="s">
+      <c r="AH8" s="76"/>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="76"/>
+      <c r="AK8" s="76"/>
+      <c r="AL8" s="76"/>
+      <c r="AM8" s="76"/>
+      <c r="AN8" s="76"/>
+      <c r="AO8" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="49"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="49" t="s">
+      <c r="AP8" s="76"/>
+      <c r="AQ8" s="76"/>
+      <c r="AR8" s="76"/>
+      <c r="AS8" s="76"/>
+      <c r="AT8" s="76"/>
+      <c r="AU8" s="76"/>
+      <c r="AV8" s="76"/>
+      <c r="AW8" s="76"/>
+      <c r="AX8" s="76"/>
+      <c r="AY8" s="76"/>
+      <c r="AZ8" s="76"/>
+      <c r="BA8" s="76"/>
+      <c r="BB8" s="76"/>
+      <c r="BC8" s="76"/>
+      <c r="BD8" s="76"/>
+      <c r="BE8" s="76"/>
+      <c r="BF8" s="76"/>
+      <c r="BG8" s="76"/>
+      <c r="BH8" s="76"/>
+      <c r="BI8" s="76"/>
+    </row>
+    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="77"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="77"/>
+      <c r="AT9" s="77"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="77"/>
+      <c r="BA9" s="77"/>
+      <c r="BB9" s="77"/>
+      <c r="BC9" s="77"/>
+      <c r="BD9" s="77"/>
+      <c r="BE9" s="77"/>
+      <c r="BF9" s="77"/>
+      <c r="BG9" s="77"/>
+      <c r="BH9" s="77"/>
+      <c r="BI9" s="77"/>
+    </row>
+    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="77"/>
+      <c r="AS10" s="77"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="77"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="77"/>
+      <c r="BA10" s="77"/>
+      <c r="BB10" s="77"/>
+      <c r="BC10" s="77"/>
+      <c r="BD10" s="77"/>
+      <c r="BE10" s="77"/>
+      <c r="BF10" s="77"/>
+      <c r="BG10" s="77"/>
+      <c r="BH10" s="77"/>
+      <c r="BI10" s="77"/>
+    </row>
+    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="77"/>
+      <c r="AK11" s="77"/>
+      <c r="AL11" s="77"/>
+      <c r="AM11" s="77"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="77"/>
+      <c r="AP11" s="77"/>
+      <c r="AQ11" s="77"/>
+      <c r="AR11" s="77"/>
+      <c r="AS11" s="77"/>
+      <c r="AT11" s="77"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="77"/>
+      <c r="AW11" s="77"/>
+      <c r="AX11" s="77"/>
+      <c r="AY11" s="77"/>
+      <c r="AZ11" s="77"/>
+      <c r="BA11" s="77"/>
+      <c r="BB11" s="77"/>
+      <c r="BC11" s="77"/>
+      <c r="BD11" s="77"/>
+      <c r="BE11" s="77"/>
+      <c r="BF11" s="77"/>
+      <c r="BG11" s="77"/>
+      <c r="BH11" s="77"/>
+      <c r="BI11" s="77"/>
+    </row>
+    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="AP8" s="49"/>
-      <c r="AQ8" s="49"/>
-      <c r="AR8" s="49"/>
-      <c r="AS8" s="49"/>
-      <c r="AT8" s="49"/>
-      <c r="AU8" s="49"/>
-      <c r="AV8" s="49"/>
-      <c r="AW8" s="49"/>
-      <c r="AX8" s="49"/>
-      <c r="AY8" s="49"/>
-      <c r="AZ8" s="49"/>
-      <c r="BA8" s="49"/>
-      <c r="BB8" s="49"/>
-      <c r="BC8" s="49"/>
-      <c r="BD8" s="49"/>
-      <c r="BE8" s="49"/>
-      <c r="BF8" s="49"/>
-      <c r="BG8" s="49"/>
-      <c r="BH8" s="49"/>
-      <c r="BI8" s="49"/>
-    </row>
-    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="48"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="48"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="48"/>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="48"/>
-      <c r="AV9" s="48"/>
-      <c r="AW9" s="48"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="48"/>
-      <c r="AZ9" s="48"/>
-      <c r="BA9" s="48"/>
-      <c r="BB9" s="48"/>
-      <c r="BC9" s="48"/>
-      <c r="BD9" s="48"/>
-      <c r="BE9" s="48"/>
-      <c r="BF9" s="48"/>
-      <c r="BG9" s="48"/>
-      <c r="BH9" s="48"/>
-      <c r="BI9" s="48"/>
-    </row>
-    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
-      <c r="AP10" s="48"/>
-      <c r="AQ10" s="48"/>
-      <c r="AR10" s="48"/>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="48"/>
-      <c r="AU10" s="48"/>
-      <c r="AV10" s="48"/>
-      <c r="AW10" s="48"/>
-      <c r="AX10" s="48"/>
-      <c r="AY10" s="48"/>
-      <c r="AZ10" s="48"/>
-      <c r="BA10" s="48"/>
-      <c r="BB10" s="48"/>
-      <c r="BC10" s="48"/>
-      <c r="BD10" s="48"/>
-      <c r="BE10" s="48"/>
-      <c r="BF10" s="48"/>
-      <c r="BG10" s="48"/>
-      <c r="BH10" s="48"/>
-      <c r="BI10" s="48"/>
-    </row>
-    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="48"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="48"/>
-      <c r="AV11" s="48"/>
-      <c r="AW11" s="48"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="48"/>
-      <c r="AZ11" s="48"/>
-      <c r="BA11" s="48"/>
-      <c r="BB11" s="48"/>
-      <c r="BC11" s="48"/>
-      <c r="BD11" s="48"/>
-      <c r="BE11" s="48"/>
-      <c r="BF11" s="48"/>
-      <c r="BG11" s="48"/>
-      <c r="BH11" s="48"/>
-      <c r="BI11" s="48"/>
-    </row>
-    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="49"/>
-      <c r="AM13" s="49"/>
-      <c r="AN13" s="49"/>
-      <c r="AO13" s="49"/>
-      <c r="AP13" s="49"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="49"/>
-      <c r="AS13" s="49"/>
-      <c r="AT13" s="49"/>
-      <c r="AU13" s="49"/>
-      <c r="AV13" s="49"/>
-      <c r="AW13" s="49"/>
-      <c r="AX13" s="49"/>
-      <c r="AY13" s="49"/>
-      <c r="AZ13" s="49"/>
-      <c r="BA13" s="49"/>
-      <c r="BB13" s="49"/>
-      <c r="BC13" s="49"/>
-      <c r="BD13" s="49"/>
-      <c r="BE13" s="49"/>
-      <c r="BF13" s="49"/>
-      <c r="BG13" s="49"/>
-      <c r="BH13" s="49"/>
-      <c r="BI13" s="49"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="76"/>
+      <c r="AE13" s="76"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="76"/>
+      <c r="AH13" s="76"/>
+      <c r="AI13" s="76"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="76"/>
+      <c r="AM13" s="76"/>
+      <c r="AN13" s="76"/>
+      <c r="AO13" s="76"/>
+      <c r="AP13" s="76"/>
+      <c r="AQ13" s="76"/>
+      <c r="AR13" s="76"/>
+      <c r="AS13" s="76"/>
+      <c r="AT13" s="76"/>
+      <c r="AU13" s="76"/>
+      <c r="AV13" s="76"/>
+      <c r="AW13" s="76"/>
+      <c r="AX13" s="76"/>
+      <c r="AY13" s="76"/>
+      <c r="AZ13" s="76"/>
+      <c r="BA13" s="76"/>
+      <c r="BB13" s="76"/>
+      <c r="BC13" s="76"/>
+      <c r="BD13" s="76"/>
+      <c r="BE13" s="76"/>
+      <c r="BF13" s="76"/>
+      <c r="BG13" s="76"/>
+      <c r="BH13" s="76"/>
+      <c r="BI13" s="76"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
-        <v>48</v>
+      <c r="A14" s="75" t="s">
+        <v>40</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="65"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="65"/>
-      <c r="AL14" s="65"/>
-      <c r="AM14" s="65"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="65"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="65"/>
-      <c r="AT14" s="65"/>
-      <c r="AU14" s="65"/>
-      <c r="AV14" s="65"/>
-      <c r="AW14" s="65"/>
-      <c r="AX14" s="65"/>
-      <c r="AY14" s="65"/>
-      <c r="AZ14" s="65"/>
-      <c r="BA14" s="65"/>
-      <c r="BB14" s="65"/>
-      <c r="BC14" s="65"/>
-      <c r="BD14" s="65"/>
-      <c r="BE14" s="65"/>
-      <c r="BF14" s="65"/>
-      <c r="BG14" s="65"/>
-      <c r="BH14" s="65"/>
-      <c r="BI14" s="65"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="75"/>
+      <c r="AQ14" s="75"/>
+      <c r="AR14" s="75"/>
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="75"/>
+      <c r="AU14" s="75"/>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="75"/>
+      <c r="AX14" s="75"/>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="75"/>
+      <c r="BA14" s="75"/>
+      <c r="BB14" s="75"/>
+      <c r="BC14" s="75"/>
+      <c r="BD14" s="75"/>
+      <c r="BE14" s="75"/>
+      <c r="BF14" s="75"/>
+      <c r="BG14" s="75"/>
+      <c r="BH14" s="75"/>
+      <c r="BI14" s="75"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="65"/>
-      <c r="AZ15" s="65"/>
-      <c r="BA15" s="65"/>
-      <c r="BB15" s="65"/>
-      <c r="BC15" s="65"/>
-      <c r="BD15" s="65"/>
-      <c r="BE15" s="65"/>
-      <c r="BF15" s="65"/>
-      <c r="BG15" s="65"/>
-      <c r="BH15" s="65"/>
-      <c r="BI15" s="65"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="75"/>
+      <c r="AO15" s="75"/>
+      <c r="AP15" s="75"/>
+      <c r="AQ15" s="75"/>
+      <c r="AR15" s="75"/>
+      <c r="AS15" s="75"/>
+      <c r="AT15" s="75"/>
+      <c r="AU15" s="75"/>
+      <c r="AV15" s="75"/>
+      <c r="AW15" s="75"/>
+      <c r="AX15" s="75"/>
+      <c r="AY15" s="75"/>
+      <c r="AZ15" s="75"/>
+      <c r="BA15" s="75"/>
+      <c r="BB15" s="75"/>
+      <c r="BC15" s="75"/>
+      <c r="BD15" s="75"/>
+      <c r="BE15" s="75"/>
+      <c r="BF15" s="75"/>
+      <c r="BG15" s="75"/>
+      <c r="BH15" s="75"/>
+      <c r="BI15" s="75"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="65"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="65"/>
-      <c r="AL16" s="65"/>
-      <c r="AM16" s="65"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="65"/>
-      <c r="AX16" s="65"/>
-      <c r="AY16" s="65"/>
-      <c r="AZ16" s="65"/>
-      <c r="BA16" s="65"/>
-      <c r="BB16" s="65"/>
-      <c r="BC16" s="65"/>
-      <c r="BD16" s="65"/>
-      <c r="BE16" s="65"/>
-      <c r="BF16" s="65"/>
-      <c r="BG16" s="65"/>
-      <c r="BH16" s="65"/>
-      <c r="BI16" s="65"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="75"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="75"/>
+      <c r="AO16" s="75"/>
+      <c r="AP16" s="75"/>
+      <c r="AQ16" s="75"/>
+      <c r="AR16" s="75"/>
+      <c r="AS16" s="75"/>
+      <c r="AT16" s="75"/>
+      <c r="AU16" s="75"/>
+      <c r="AV16" s="75"/>
+      <c r="AW16" s="75"/>
+      <c r="AX16" s="75"/>
+      <c r="AY16" s="75"/>
+      <c r="AZ16" s="75"/>
+      <c r="BA16" s="75"/>
+      <c r="BB16" s="75"/>
+      <c r="BC16" s="75"/>
+      <c r="BD16" s="75"/>
+      <c r="BE16" s="75"/>
+      <c r="BF16" s="75"/>
+      <c r="BG16" s="75"/>
+      <c r="BH16" s="75"/>
+      <c r="BI16" s="75"/>
     </row>
     <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-      <c r="AZ17" s="65"/>
-      <c r="BA17" s="65"/>
-      <c r="BB17" s="65"/>
-      <c r="BC17" s="65"/>
-      <c r="BD17" s="65"/>
-      <c r="BE17" s="65"/>
-      <c r="BF17" s="65"/>
-      <c r="BG17" s="65"/>
-      <c r="BH17" s="65"/>
-      <c r="BI17" s="65"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="75"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="75"/>
+      <c r="AL17" s="75"/>
+      <c r="AM17" s="75"/>
+      <c r="AN17" s="75"/>
+      <c r="AO17" s="75"/>
+      <c r="AP17" s="75"/>
+      <c r="AQ17" s="75"/>
+      <c r="AR17" s="75"/>
+      <c r="AS17" s="75"/>
+      <c r="AT17" s="75"/>
+      <c r="AU17" s="75"/>
+      <c r="AV17" s="75"/>
+      <c r="AW17" s="75"/>
+      <c r="AX17" s="75"/>
+      <c r="AY17" s="75"/>
+      <c r="AZ17" s="75"/>
+      <c r="BA17" s="75"/>
+      <c r="BB17" s="75"/>
+      <c r="BC17" s="75"/>
+      <c r="BD17" s="75"/>
+      <c r="BE17" s="75"/>
+      <c r="BF17" s="75"/>
+      <c r="BG17" s="75"/>
+      <c r="BH17" s="75"/>
+      <c r="BI17" s="75"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
-      <c r="BC18" s="65"/>
-      <c r="BD18" s="65"/>
-      <c r="BE18" s="65"/>
-      <c r="BF18" s="65"/>
-      <c r="BG18" s="65"/>
-      <c r="BH18" s="65"/>
-      <c r="BI18" s="65"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="75"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="75"/>
+      <c r="AO18" s="75"/>
+      <c r="AP18" s="75"/>
+      <c r="AQ18" s="75"/>
+      <c r="AR18" s="75"/>
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="75"/>
+      <c r="AU18" s="75"/>
+      <c r="AV18" s="75"/>
+      <c r="AW18" s="75"/>
+      <c r="AX18" s="75"/>
+      <c r="AY18" s="75"/>
+      <c r="AZ18" s="75"/>
+      <c r="BA18" s="75"/>
+      <c r="BB18" s="75"/>
+      <c r="BC18" s="75"/>
+      <c r="BD18" s="75"/>
+      <c r="BE18" s="75"/>
+      <c r="BF18" s="75"/>
+      <c r="BG18" s="75"/>
+      <c r="BH18" s="75"/>
+      <c r="BI18" s="75"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
-      <c r="BC19" s="65"/>
-      <c r="BD19" s="65"/>
-      <c r="BE19" s="65"/>
-      <c r="BF19" s="65"/>
-      <c r="BG19" s="65"/>
-      <c r="BH19" s="65"/>
-      <c r="BI19" s="65"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="75"/>
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="75"/>
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="75"/>
+      <c r="AF19" s="75"/>
+      <c r="AG19" s="75"/>
+      <c r="AH19" s="75"/>
+      <c r="AI19" s="75"/>
+      <c r="AJ19" s="75"/>
+      <c r="AK19" s="75"/>
+      <c r="AL19" s="75"/>
+      <c r="AM19" s="75"/>
+      <c r="AN19" s="75"/>
+      <c r="AO19" s="75"/>
+      <c r="AP19" s="75"/>
+      <c r="AQ19" s="75"/>
+      <c r="AR19" s="75"/>
+      <c r="AS19" s="75"/>
+      <c r="AT19" s="75"/>
+      <c r="AU19" s="75"/>
+      <c r="AV19" s="75"/>
+      <c r="AW19" s="75"/>
+      <c r="AX19" s="75"/>
+      <c r="AY19" s="75"/>
+      <c r="AZ19" s="75"/>
+      <c r="BA19" s="75"/>
+      <c r="BB19" s="75"/>
+      <c r="BC19" s="75"/>
+      <c r="BD19" s="75"/>
+      <c r="BE19" s="75"/>
+      <c r="BF19" s="75"/>
+      <c r="BG19" s="75"/>
+      <c r="BH19" s="75"/>
+      <c r="BI19" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -3088,8 +3015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IX35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9:BI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3098,86 +3025,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="51" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="52" t="s">
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="51" t="s">
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="52" t="str">
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="80" t="str">
         <f>クラス仕様!AE1</f>
         <v>商品検索</v>
       </c>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="51" t="s">
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="52" t="s">
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="86"/>
+      <c r="AX1" s="86"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="86"/>
+      <c r="BA1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="51" t="s">
-        <v>6</v>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="88">
+        <v>45566</v>
       </c>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="58">
-        <v>45000</v>
-      </c>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
+      <c r="BE1" s="88"/>
+      <c r="BF1" s="88"/>
+      <c r="BG1" s="88"/>
+      <c r="BH1" s="88"/>
+      <c r="BI1" s="88"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -3377,78 +3304,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="51" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52" t="str">
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="80" t="str">
         <f>クラス仕様!G5</f>
         <v>CategoriesDAO</v>
       </c>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="51" t="s">
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="79"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+      <c r="AW2" s="80"/>
+      <c r="AX2" s="80"/>
+      <c r="AY2" s="80"/>
+      <c r="AZ2" s="80"/>
+      <c r="BA2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="79"/>
+      <c r="BD2" s="87"/>
+      <c r="BE2" s="87"/>
+      <c r="BF2" s="87"/>
+      <c r="BG2" s="87"/>
+      <c r="BH2" s="87"/>
+      <c r="BI2" s="87"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -3648,71 +3575,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
-        <v>20</v>
+      <c r="A4" s="76" t="s">
+        <v>19</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="53" t="s">
-        <v>32</v>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="81" t="s">
+        <v>71</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="53"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="53"/>
-      <c r="BE4" s="53"/>
-      <c r="BF4" s="53"/>
-      <c r="BG4" s="53"/>
-      <c r="BH4" s="53"/>
-      <c r="BI4" s="53"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="81"/>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="81"/>
+      <c r="AP4" s="81"/>
+      <c r="AQ4" s="81"/>
+      <c r="AR4" s="81"/>
+      <c r="AS4" s="81"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="81"/>
+      <c r="AW4" s="81"/>
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="81"/>
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="81"/>
+      <c r="BD4" s="81"/>
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="81"/>
+      <c r="BG4" s="81"/>
+      <c r="BH4" s="81"/>
+      <c r="BI4" s="81"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -3912,72 +3839,72 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
-        <v>21</v>
+      <c r="A5" s="76" t="s">
+        <v>20</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="53" t="str">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="81" t="str">
         <f>クラス仕様!G5</f>
         <v>CategoriesDAO</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
-      <c r="BI5" s="53"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="81"/>
+      <c r="AF5" s="81"/>
+      <c r="AG5" s="81"/>
+      <c r="AH5" s="81"/>
+      <c r="AI5" s="81"/>
+      <c r="AJ5" s="81"/>
+      <c r="AK5" s="81"/>
+      <c r="AL5" s="81"/>
+      <c r="AM5" s="81"/>
+      <c r="AN5" s="81"/>
+      <c r="AO5" s="81"/>
+      <c r="AP5" s="81"/>
+      <c r="AQ5" s="81"/>
+      <c r="AR5" s="81"/>
+      <c r="AS5" s="81"/>
+      <c r="AT5" s="81"/>
+      <c r="AU5" s="81"/>
+      <c r="AV5" s="81"/>
+      <c r="AW5" s="81"/>
+      <c r="AX5" s="81"/>
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="81"/>
+      <c r="BA5" s="81"/>
+      <c r="BB5" s="81"/>
+      <c r="BC5" s="81"/>
+      <c r="BD5" s="81"/>
+      <c r="BE5" s="81"/>
+      <c r="BF5" s="81"/>
+      <c r="BG5" s="81"/>
+      <c r="BH5" s="81"/>
+      <c r="BI5" s="81"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -4437,75 +4364,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59" t="s">
-        <v>23</v>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90" t="s">
+        <v>14</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59" t="s">
-        <v>15</v>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90" t="s">
+        <v>17</v>
       </c>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="59"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="59"/>
-      <c r="AU7" s="59"/>
-      <c r="AV7" s="59"/>
-      <c r="AW7" s="59"/>
-      <c r="AX7" s="59"/>
-      <c r="AY7" s="59"/>
-      <c r="AZ7" s="59"/>
-      <c r="BA7" s="59"/>
-      <c r="BB7" s="59"/>
-      <c r="BC7" s="59"/>
-      <c r="BD7" s="59"/>
-      <c r="BE7" s="59"/>
-      <c r="BF7" s="59"/>
-      <c r="BG7" s="59"/>
-      <c r="BH7" s="59"/>
-      <c r="BI7" s="59"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="90"/>
+      <c r="AJ7" s="90"/>
+      <c r="AK7" s="90"/>
+      <c r="AL7" s="90"/>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="90"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90"/>
+      <c r="AV7" s="90"/>
+      <c r="AW7" s="90"/>
+      <c r="AX7" s="90"/>
+      <c r="AY7" s="90"/>
+      <c r="AZ7" s="90"/>
+      <c r="BA7" s="90"/>
+      <c r="BB7" s="90"/>
+      <c r="BC7" s="90"/>
+      <c r="BD7" s="90"/>
+      <c r="BE7" s="90"/>
+      <c r="BF7" s="90"/>
+      <c r="BG7" s="90"/>
+      <c r="BH7" s="90"/>
+      <c r="BI7" s="90"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -4705,75 +4632,67 @@
       <c r="IX7" s="1"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="61"/>
-      <c r="AJ8" s="61"/>
-      <c r="AK8" s="61"/>
-      <c r="AL8" s="61"/>
-      <c r="AM8" s="61"/>
-      <c r="AN8" s="61"/>
-      <c r="AO8" s="61"/>
-      <c r="AP8" s="61"/>
-      <c r="AQ8" s="61"/>
-      <c r="AR8" s="61"/>
-      <c r="AS8" s="61"/>
-      <c r="AT8" s="61"/>
-      <c r="AU8" s="61"/>
-      <c r="AV8" s="61"/>
-      <c r="AW8" s="61"/>
-      <c r="AX8" s="61"/>
-      <c r="AY8" s="61"/>
-      <c r="AZ8" s="61"/>
-      <c r="BA8" s="61"/>
-      <c r="BB8" s="61"/>
-      <c r="BC8" s="61"/>
-      <c r="BD8" s="61"/>
-      <c r="BE8" s="61"/>
-      <c r="BF8" s="61"/>
-      <c r="BG8" s="61"/>
-      <c r="BH8" s="61"/>
-      <c r="BI8" s="61"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="92"/>
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="92"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="92"/>
+      <c r="AR8" s="92"/>
+      <c r="AS8" s="92"/>
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="92"/>
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="92"/>
+      <c r="BA8" s="92"/>
+      <c r="BB8" s="92"/>
+      <c r="BC8" s="92"/>
+      <c r="BD8" s="92"/>
+      <c r="BE8" s="92"/>
+      <c r="BF8" s="92"/>
+      <c r="BG8" s="92"/>
+      <c r="BH8" s="92"/>
+      <c r="BI8" s="92"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -4973,67 +4892,67 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="61"/>
-      <c r="AK9" s="61"/>
-      <c r="AL9" s="61"/>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="61"/>
-      <c r="AO9" s="61"/>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="61"/>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="61"/>
-      <c r="AU9" s="61"/>
-      <c r="AV9" s="61"/>
-      <c r="AW9" s="61"/>
-      <c r="AX9" s="61"/>
-      <c r="AY9" s="61"/>
-      <c r="AZ9" s="61"/>
-      <c r="BA9" s="61"/>
-      <c r="BB9" s="61"/>
-      <c r="BC9" s="61"/>
-      <c r="BD9" s="61"/>
-      <c r="BE9" s="61"/>
-      <c r="BF9" s="61"/>
-      <c r="BG9" s="61"/>
-      <c r="BH9" s="61"/>
-      <c r="BI9" s="61"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="92"/>
+      <c r="AM9" s="92"/>
+      <c r="AN9" s="92"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="92"/>
+      <c r="AQ9" s="92"/>
+      <c r="AR9" s="92"/>
+      <c r="AS9" s="92"/>
+      <c r="AT9" s="92"/>
+      <c r="AU9" s="92"/>
+      <c r="AV9" s="92"/>
+      <c r="AW9" s="92"/>
+      <c r="AX9" s="92"/>
+      <c r="AY9" s="92"/>
+      <c r="AZ9" s="92"/>
+      <c r="BA9" s="92"/>
+      <c r="BB9" s="92"/>
+      <c r="BC9" s="92"/>
+      <c r="BD9" s="92"/>
+      <c r="BE9" s="92"/>
+      <c r="BF9" s="92"/>
+      <c r="BG9" s="92"/>
+      <c r="BH9" s="92"/>
+      <c r="BI9" s="92"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -5233,67 +5152,67 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
-      <c r="AP10" s="48"/>
-      <c r="AQ10" s="48"/>
-      <c r="AR10" s="48"/>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="48"/>
-      <c r="AU10" s="48"/>
-      <c r="AV10" s="48"/>
-      <c r="AW10" s="48"/>
-      <c r="AX10" s="48"/>
-      <c r="AY10" s="48"/>
-      <c r="AZ10" s="48"/>
-      <c r="BA10" s="48"/>
-      <c r="BB10" s="48"/>
-      <c r="BC10" s="48"/>
-      <c r="BD10" s="48"/>
-      <c r="BE10" s="48"/>
-      <c r="BF10" s="48"/>
-      <c r="BG10" s="48"/>
-      <c r="BH10" s="48"/>
-      <c r="BI10" s="48"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="77"/>
+      <c r="AS10" s="77"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="77"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="77"/>
+      <c r="BA10" s="77"/>
+      <c r="BB10" s="77"/>
+      <c r="BC10" s="77"/>
+      <c r="BD10" s="77"/>
+      <c r="BE10" s="77"/>
+      <c r="BF10" s="77"/>
+      <c r="BG10" s="77"/>
+      <c r="BH10" s="77"/>
+      <c r="BI10" s="77"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -5493,67 +5412,67 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="48"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="48"/>
-      <c r="AV11" s="48"/>
-      <c r="AW11" s="48"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="48"/>
-      <c r="AZ11" s="48"/>
-      <c r="BA11" s="48"/>
-      <c r="BB11" s="48"/>
-      <c r="BC11" s="48"/>
-      <c r="BD11" s="48"/>
-      <c r="BE11" s="48"/>
-      <c r="BF11" s="48"/>
-      <c r="BG11" s="48"/>
-      <c r="BH11" s="48"/>
-      <c r="BI11" s="48"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="77"/>
+      <c r="AK11" s="77"/>
+      <c r="AL11" s="77"/>
+      <c r="AM11" s="77"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="77"/>
+      <c r="AP11" s="77"/>
+      <c r="AQ11" s="77"/>
+      <c r="AR11" s="77"/>
+      <c r="AS11" s="77"/>
+      <c r="AT11" s="77"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="77"/>
+      <c r="AW11" s="77"/>
+      <c r="AX11" s="77"/>
+      <c r="AY11" s="77"/>
+      <c r="AZ11" s="77"/>
+      <c r="BA11" s="77"/>
+      <c r="BB11" s="77"/>
+      <c r="BC11" s="77"/>
+      <c r="BD11" s="77"/>
+      <c r="BE11" s="77"/>
+      <c r="BF11" s="77"/>
+      <c r="BG11" s="77"/>
+      <c r="BH11" s="77"/>
+      <c r="BI11" s="77"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -6273,73 +6192,73 @@
       <c r="IX13" s="1"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="90"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="90"/>
+      <c r="AJ14" s="90"/>
+      <c r="AK14" s="90"/>
+      <c r="AL14" s="90"/>
+      <c r="AM14" s="90"/>
+      <c r="AN14" s="90"/>
+      <c r="AO14" s="90"/>
+      <c r="AP14" s="90"/>
+      <c r="AQ14" s="90"/>
+      <c r="AR14" s="90"/>
+      <c r="AS14" s="90"/>
+      <c r="AT14" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="59"/>
-      <c r="AJ14" s="59"/>
-      <c r="AK14" s="59"/>
-      <c r="AL14" s="59"/>
-      <c r="AM14" s="59"/>
-      <c r="AN14" s="59"/>
-      <c r="AO14" s="59"/>
-      <c r="AP14" s="59"/>
-      <c r="AQ14" s="59"/>
-      <c r="AR14" s="59"/>
-      <c r="AS14" s="59"/>
-      <c r="AT14" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU14" s="59"/>
-      <c r="AV14" s="59"/>
-      <c r="AW14" s="59"/>
-      <c r="AX14" s="59"/>
-      <c r="AY14" s="59"/>
-      <c r="AZ14" s="59"/>
-      <c r="BA14" s="59"/>
-      <c r="BB14" s="59"/>
-      <c r="BC14" s="59"/>
-      <c r="BD14" s="59"/>
-      <c r="BE14" s="59"/>
-      <c r="BF14" s="59"/>
-      <c r="BG14" s="59"/>
-      <c r="BH14" s="59"/>
-      <c r="BI14" s="59"/>
+      <c r="AU14" s="90"/>
+      <c r="AV14" s="90"/>
+      <c r="AW14" s="90"/>
+      <c r="AX14" s="90"/>
+      <c r="AY14" s="90"/>
+      <c r="AZ14" s="90"/>
+      <c r="BA14" s="90"/>
+      <c r="BB14" s="90"/>
+      <c r="BC14" s="90"/>
+      <c r="BD14" s="90"/>
+      <c r="BE14" s="90"/>
+      <c r="BF14" s="90"/>
+      <c r="BG14" s="90"/>
+      <c r="BH14" s="90"/>
+      <c r="BI14" s="90"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
@@ -6539,9 +6458,7 @@
       <c r="IX14" s="1"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6556,12 +6473,8 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -11971,8 +11884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IX36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14:BI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11981,86 +11894,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="67" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="68" t="s">
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="67" t="s">
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="68" t="str">
-        <f>[1]クラス仕様!AE1</f>
-        <v>商品検索</v>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="86" t="s">
+        <v>72</v>
       </c>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="67" t="s">
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="68" t="s">
-        <v>49</v>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="86" t="s">
+        <v>41</v>
       </c>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="68"/>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="67" t="s">
-        <v>6</v>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="86"/>
+      <c r="AX1" s="86"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="86"/>
+      <c r="BA1" s="89" t="s">
+        <v>5</v>
       </c>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="69">
+      <c r="BB1" s="89"/>
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="88">
         <v>45565</v>
       </c>
-      <c r="BE1" s="69"/>
-      <c r="BF1" s="69"/>
-      <c r="BG1" s="69"/>
-      <c r="BH1" s="69"/>
-      <c r="BI1" s="69"/>
+      <c r="BE1" s="88"/>
+      <c r="BF1" s="88"/>
+      <c r="BG1" s="88"/>
+      <c r="BH1" s="88"/>
+      <c r="BI1" s="88"/>
       <c r="BJ1"/>
       <c r="BK1"/>
       <c r="BL1"/>
@@ -12260,78 +12172,82 @@
       <c r="IX1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="67" t="s">
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="80" t="str">
+        <f>クラス仕様!G5</f>
+        <v>CategoriesDAO</v>
+      </c>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="68" t="str">
-        <f>[1]クラス仕様!G5</f>
-        <v>ItemsDAO</v>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="86" t="s">
+        <v>36</v>
       </c>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="67" t="s">
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="86"/>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="86"/>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="68"/>
-      <c r="BA2" s="67" t="s">
-        <v>10</v>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="88">
+        <v>45566</v>
       </c>
-      <c r="BB2" s="67"/>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
+      <c r="BE2" s="88"/>
+      <c r="BF2" s="88"/>
+      <c r="BG2" s="88"/>
+      <c r="BH2" s="88"/>
+      <c r="BI2" s="88"/>
       <c r="BJ2"/>
       <c r="BK2"/>
       <c r="BL2"/>
@@ -12531,71 +12447,71 @@
       <c r="IX2"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
-        <v>20</v>
+      <c r="A4" s="76" t="s">
+        <v>19</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="71" t="s">
-        <v>66</v>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="94" t="s">
+        <v>69</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
-      <c r="AU4" s="71"/>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="71"/>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="71"/>
-      <c r="BI4" s="71"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="94"/>
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="94"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
       <c r="BJ4"/>
       <c r="BK4"/>
       <c r="BL4"/>
@@ -12795,71 +12711,71 @@
       <c r="IX4"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
-        <v>21</v>
+      <c r="A5" s="76" t="s">
+        <v>20</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="71" t="s">
-        <v>67</v>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="94" t="s">
+        <v>58</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="71"/>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="71"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="71"/>
-      <c r="AJ5" s="71"/>
-      <c r="AK5" s="71"/>
-      <c r="AL5" s="71"/>
-      <c r="AM5" s="71"/>
-      <c r="AN5" s="71"/>
-      <c r="AO5" s="71"/>
-      <c r="AP5" s="71"/>
-      <c r="AQ5" s="71"/>
-      <c r="AR5" s="71"/>
-      <c r="AS5" s="71"/>
-      <c r="AT5" s="71"/>
-      <c r="AU5" s="71"/>
-      <c r="AV5" s="71"/>
-      <c r="AW5" s="71"/>
-      <c r="AX5" s="71"/>
-      <c r="AY5" s="71"/>
-      <c r="AZ5" s="71"/>
-      <c r="BA5" s="71"/>
-      <c r="BB5" s="71"/>
-      <c r="BC5" s="71"/>
-      <c r="BD5" s="71"/>
-      <c r="BE5" s="71"/>
-      <c r="BF5" s="71"/>
-      <c r="BG5" s="71"/>
-      <c r="BH5" s="71"/>
-      <c r="BI5" s="71"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="94"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="94"/>
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="94"/>
+      <c r="AS5" s="94"/>
+      <c r="AT5" s="94"/>
+      <c r="AU5" s="94"/>
+      <c r="AV5" s="94"/>
+      <c r="AW5" s="94"/>
+      <c r="AX5" s="94"/>
+      <c r="AY5" s="94"/>
+      <c r="AZ5" s="94"/>
+      <c r="BA5" s="94"/>
+      <c r="BB5" s="94"/>
+      <c r="BC5" s="94"/>
+      <c r="BD5" s="94"/>
+      <c r="BE5" s="94"/>
+      <c r="BF5" s="94"/>
+      <c r="BG5" s="94"/>
+      <c r="BH5" s="94"/>
+      <c r="BI5" s="94"/>
       <c r="BJ5"/>
       <c r="BK5"/>
       <c r="BL5"/>
@@ -13258,75 +13174,75 @@
       <c r="IX6"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59" t="s">
-        <v>23</v>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90" t="s">
+        <v>14</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59" t="s">
-        <v>15</v>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90" t="s">
+        <v>17</v>
       </c>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="59"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="59"/>
-      <c r="AU7" s="59"/>
-      <c r="AV7" s="59"/>
-      <c r="AW7" s="59"/>
-      <c r="AX7" s="59"/>
-      <c r="AY7" s="59"/>
-      <c r="AZ7" s="59"/>
-      <c r="BA7" s="59"/>
-      <c r="BB7" s="59"/>
-      <c r="BC7" s="59"/>
-      <c r="BD7" s="59"/>
-      <c r="BE7" s="59"/>
-      <c r="BF7" s="59"/>
-      <c r="BG7" s="59"/>
-      <c r="BH7" s="59"/>
-      <c r="BI7" s="59"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="90"/>
+      <c r="AJ7" s="90"/>
+      <c r="AK7" s="90"/>
+      <c r="AL7" s="90"/>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="90"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90"/>
+      <c r="AV7" s="90"/>
+      <c r="AW7" s="90"/>
+      <c r="AX7" s="90"/>
+      <c r="AY7" s="90"/>
+      <c r="AZ7" s="90"/>
+      <c r="BA7" s="90"/>
+      <c r="BB7" s="90"/>
+      <c r="BC7" s="90"/>
+      <c r="BD7" s="90"/>
+      <c r="BE7" s="90"/>
+      <c r="BF7" s="90"/>
+      <c r="BG7" s="90"/>
+      <c r="BH7" s="90"/>
+      <c r="BI7" s="90"/>
       <c r="BJ7"/>
       <c r="BK7"/>
       <c r="BL7"/>
@@ -13526,75 +13442,75 @@
       <c r="IX7"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="72" t="s">
-        <v>24</v>
+      <c r="A8" s="96" t="s">
+        <v>23</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73" t="s">
-        <v>31</v>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97" t="s">
+        <v>30</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73" t="s">
-        <v>50</v>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97" t="s">
+        <v>42</v>
       </c>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="73" t="s">
-        <v>51</v>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="97"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="97"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="97"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="97"/>
+      <c r="AD8" s="97"/>
+      <c r="AE8" s="97" t="s">
+        <v>43</v>
       </c>
-      <c r="AF8" s="73"/>
-      <c r="AG8" s="73"/>
-      <c r="AH8" s="73"/>
-      <c r="AI8" s="73"/>
-      <c r="AJ8" s="73"/>
-      <c r="AK8" s="73"/>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="73"/>
-      <c r="AO8" s="73"/>
-      <c r="AP8" s="73"/>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="73"/>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="73"/>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="73"/>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="73"/>
-      <c r="AY8" s="73"/>
-      <c r="AZ8" s="73"/>
-      <c r="BA8" s="73"/>
-      <c r="BB8" s="73"/>
-      <c r="BC8" s="73"/>
-      <c r="BD8" s="73"/>
-      <c r="BE8" s="73"/>
-      <c r="BF8" s="73"/>
-      <c r="BG8" s="73"/>
-      <c r="BH8" s="73"/>
-      <c r="BI8" s="73"/>
+      <c r="AF8" s="97"/>
+      <c r="AG8" s="97"/>
+      <c r="AH8" s="97"/>
+      <c r="AI8" s="97"/>
+      <c r="AJ8" s="97"/>
+      <c r="AK8" s="97"/>
+      <c r="AL8" s="97"/>
+      <c r="AM8" s="97"/>
+      <c r="AN8" s="97"/>
+      <c r="AO8" s="97"/>
+      <c r="AP8" s="97"/>
+      <c r="AQ8" s="97"/>
+      <c r="AR8" s="97"/>
+      <c r="AS8" s="97"/>
+      <c r="AT8" s="97"/>
+      <c r="AU8" s="97"/>
+      <c r="AV8" s="97"/>
+      <c r="AW8" s="97"/>
+      <c r="AX8" s="97"/>
+      <c r="AY8" s="97"/>
+      <c r="AZ8" s="97"/>
+      <c r="BA8" s="97"/>
+      <c r="BB8" s="97"/>
+      <c r="BC8" s="97"/>
+      <c r="BD8" s="97"/>
+      <c r="BE8" s="97"/>
+      <c r="BF8" s="97"/>
+      <c r="BG8" s="97"/>
+      <c r="BH8" s="97"/>
+      <c r="BI8" s="97"/>
       <c r="BJ8"/>
       <c r="BK8"/>
       <c r="BL8"/>
@@ -13794,75 +13710,75 @@
       <c r="IX8"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="s">
-        <v>40</v>
+      <c r="A9" s="96" t="s">
+        <v>32</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73" t="s">
-        <v>52</v>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97" t="s">
+        <v>44</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73" t="s">
-        <v>68</v>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97" t="s">
+        <v>59</v>
       </c>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73" t="s">
-        <v>53</v>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="97"/>
+      <c r="AE9" s="97" t="s">
+        <v>45</v>
       </c>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="73"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="73"/>
-      <c r="AN9" s="73"/>
-      <c r="AO9" s="73"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="73"/>
-      <c r="AR9" s="73"/>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="73"/>
-      <c r="AU9" s="73"/>
-      <c r="AV9" s="73"/>
-      <c r="AW9" s="73"/>
-      <c r="AX9" s="73"/>
-      <c r="AY9" s="73"/>
-      <c r="AZ9" s="73"/>
-      <c r="BA9" s="73"/>
-      <c r="BB9" s="73"/>
-      <c r="BC9" s="73"/>
-      <c r="BD9" s="73"/>
-      <c r="BE9" s="73"/>
-      <c r="BF9" s="73"/>
-      <c r="BG9" s="73"/>
-      <c r="BH9" s="73"/>
-      <c r="BI9" s="73"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="97"/>
+      <c r="AH9" s="97"/>
+      <c r="AI9" s="97"/>
+      <c r="AJ9" s="97"/>
+      <c r="AK9" s="97"/>
+      <c r="AL9" s="97"/>
+      <c r="AM9" s="97"/>
+      <c r="AN9" s="97"/>
+      <c r="AO9" s="97"/>
+      <c r="AP9" s="97"/>
+      <c r="AQ9" s="97"/>
+      <c r="AR9" s="97"/>
+      <c r="AS9" s="97"/>
+      <c r="AT9" s="97"/>
+      <c r="AU9" s="97"/>
+      <c r="AV9" s="97"/>
+      <c r="AW9" s="97"/>
+      <c r="AX9" s="97"/>
+      <c r="AY9" s="97"/>
+      <c r="AZ9" s="97"/>
+      <c r="BA9" s="97"/>
+      <c r="BB9" s="97"/>
+      <c r="BC9" s="97"/>
+      <c r="BD9" s="97"/>
+      <c r="BE9" s="97"/>
+      <c r="BF9" s="97"/>
+      <c r="BG9" s="97"/>
+      <c r="BH9" s="97"/>
+      <c r="BI9" s="97"/>
       <c r="BJ9"/>
       <c r="BK9"/>
       <c r="BL9"/>
@@ -14062,73 +13978,75 @@
       <c r="IX9"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
-        <v>41</v>
+      <c r="A10" s="96" t="s">
+        <v>33</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="73" t="s">
-        <v>42</v>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="98" t="s">
+        <v>70</v>
       </c>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73" t="s">
-        <v>43</v>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="97" t="s">
+        <v>34</v>
       </c>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="73"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="73"/>
-      <c r="AP10" s="73"/>
-      <c r="AQ10" s="73"/>
-      <c r="AR10" s="73"/>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="73"/>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="73"/>
-      <c r="AY10" s="73"/>
-      <c r="AZ10" s="73"/>
-      <c r="BA10" s="73"/>
-      <c r="BB10" s="73"/>
-      <c r="BC10" s="73"/>
-      <c r="BD10" s="73"/>
-      <c r="BE10" s="73"/>
-      <c r="BF10" s="73"/>
-      <c r="BG10" s="73"/>
-      <c r="BH10" s="73"/>
-      <c r="BI10" s="73"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="97"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="97"/>
+      <c r="AD10" s="97"/>
+      <c r="AE10" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="97"/>
+      <c r="AI10" s="97"/>
+      <c r="AJ10" s="97"/>
+      <c r="AK10" s="97"/>
+      <c r="AL10" s="97"/>
+      <c r="AM10" s="97"/>
+      <c r="AN10" s="97"/>
+      <c r="AO10" s="97"/>
+      <c r="AP10" s="97"/>
+      <c r="AQ10" s="97"/>
+      <c r="AR10" s="97"/>
+      <c r="AS10" s="97"/>
+      <c r="AT10" s="97"/>
+      <c r="AU10" s="97"/>
+      <c r="AV10" s="97"/>
+      <c r="AW10" s="97"/>
+      <c r="AX10" s="97"/>
+      <c r="AY10" s="97"/>
+      <c r="AZ10" s="97"/>
+      <c r="BA10" s="97"/>
+      <c r="BB10" s="97"/>
+      <c r="BC10" s="97"/>
+      <c r="BD10" s="97"/>
+      <c r="BE10" s="97"/>
+      <c r="BF10" s="97"/>
+      <c r="BG10" s="97"/>
+      <c r="BH10" s="97"/>
+      <c r="BI10" s="97"/>
       <c r="BJ10"/>
       <c r="BK10"/>
       <c r="BL10"/>
@@ -14328,67 +14246,67 @@
       <c r="IX10"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="72"/>
-      <c r="AL11" s="72"/>
-      <c r="AM11" s="72"/>
-      <c r="AN11" s="72"/>
-      <c r="AO11" s="72"/>
-      <c r="AP11" s="72"/>
-      <c r="AQ11" s="72"/>
-      <c r="AR11" s="72"/>
-      <c r="AS11" s="72"/>
-      <c r="AT11" s="72"/>
-      <c r="AU11" s="72"/>
-      <c r="AV11" s="72"/>
-      <c r="AW11" s="72"/>
-      <c r="AX11" s="72"/>
-      <c r="AY11" s="72"/>
-      <c r="AZ11" s="72"/>
-      <c r="BA11" s="72"/>
-      <c r="BB11" s="72"/>
-      <c r="BC11" s="72"/>
-      <c r="BD11" s="72"/>
-      <c r="BE11" s="72"/>
-      <c r="BF11" s="72"/>
-      <c r="BG11" s="72"/>
-      <c r="BH11" s="72"/>
-      <c r="BI11" s="72"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="96"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="96"/>
+      <c r="AG11" s="96"/>
+      <c r="AH11" s="96"/>
+      <c r="AI11" s="96"/>
+      <c r="AJ11" s="96"/>
+      <c r="AK11" s="96"/>
+      <c r="AL11" s="96"/>
+      <c r="AM11" s="96"/>
+      <c r="AN11" s="96"/>
+      <c r="AO11" s="96"/>
+      <c r="AP11" s="96"/>
+      <c r="AQ11" s="96"/>
+      <c r="AR11" s="96"/>
+      <c r="AS11" s="96"/>
+      <c r="AT11" s="96"/>
+      <c r="AU11" s="96"/>
+      <c r="AV11" s="96"/>
+      <c r="AW11" s="96"/>
+      <c r="AX11" s="96"/>
+      <c r="AY11" s="96"/>
+      <c r="AZ11" s="96"/>
+      <c r="BA11" s="96"/>
+      <c r="BB11" s="96"/>
+      <c r="BC11" s="96"/>
+      <c r="BD11" s="96"/>
+      <c r="BE11" s="96"/>
+      <c r="BF11" s="96"/>
+      <c r="BG11" s="96"/>
+      <c r="BH11" s="96"/>
+      <c r="BI11" s="96"/>
       <c r="BJ11"/>
       <c r="BK11"/>
       <c r="BL11"/>
@@ -14787,71 +14705,71 @@
       <c r="IX12"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="62"/>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="62"/>
-      <c r="AL13" s="62"/>
-      <c r="AM13" s="62"/>
-      <c r="AN13" s="62"/>
-      <c r="AO13" s="62"/>
-      <c r="AP13" s="62"/>
-      <c r="AQ13" s="62"/>
-      <c r="AR13" s="62"/>
-      <c r="AS13" s="62"/>
-      <c r="AT13" s="62"/>
-      <c r="AU13" s="62"/>
-      <c r="AV13" s="62"/>
-      <c r="AW13" s="62"/>
-      <c r="AX13" s="62"/>
-      <c r="AY13" s="62"/>
-      <c r="AZ13" s="62"/>
-      <c r="BA13" s="62"/>
-      <c r="BB13" s="62"/>
-      <c r="BC13" s="62"/>
-      <c r="BD13" s="62"/>
-      <c r="BE13" s="62"/>
-      <c r="BF13" s="62"/>
-      <c r="BG13" s="62"/>
-      <c r="BH13" s="62"/>
-      <c r="BI13" s="62"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="102"/>
+      <c r="AF13" s="102"/>
+      <c r="AG13" s="102"/>
+      <c r="AH13" s="102"/>
+      <c r="AI13" s="102"/>
+      <c r="AJ13" s="102"/>
+      <c r="AK13" s="102"/>
+      <c r="AL13" s="102"/>
+      <c r="AM13" s="102"/>
+      <c r="AN13" s="102"/>
+      <c r="AO13" s="102"/>
+      <c r="AP13" s="102"/>
+      <c r="AQ13" s="102"/>
+      <c r="AR13" s="102"/>
+      <c r="AS13" s="102"/>
+      <c r="AT13" s="102"/>
+      <c r="AU13" s="102"/>
+      <c r="AV13" s="102"/>
+      <c r="AW13" s="102"/>
+      <c r="AX13" s="102"/>
+      <c r="AY13" s="102"/>
+      <c r="AZ13" s="102"/>
+      <c r="BA13" s="102"/>
+      <c r="BB13" s="102"/>
+      <c r="BC13" s="102"/>
+      <c r="BD13" s="102"/>
+      <c r="BE13" s="102"/>
+      <c r="BF13" s="102"/>
+      <c r="BG13" s="102"/>
+      <c r="BH13" s="102"/>
+      <c r="BI13" s="102"/>
       <c r="BJ13"/>
       <c r="BK13"/>
       <c r="BL13"/>
@@ -15051,71 +14969,71 @@
       <c r="IX13"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="77" t="s">
-        <v>37</v>
+      <c r="A14" s="103" t="s">
+        <v>31</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="78" t="s">
-        <v>69</v>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="106" t="s">
+        <v>67</v>
       </c>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="79"/>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="79"/>
-      <c r="AJ14" s="79"/>
-      <c r="AK14" s="79"/>
-      <c r="AL14" s="79"/>
-      <c r="AM14" s="79"/>
-      <c r="AN14" s="79"/>
-      <c r="AO14" s="79"/>
-      <c r="AP14" s="79"/>
-      <c r="AQ14" s="79"/>
-      <c r="AR14" s="79"/>
-      <c r="AS14" s="79"/>
-      <c r="AT14" s="79"/>
-      <c r="AU14" s="79"/>
-      <c r="AV14" s="79"/>
-      <c r="AW14" s="79"/>
-      <c r="AX14" s="79"/>
-      <c r="AY14" s="79"/>
-      <c r="AZ14" s="79"/>
-      <c r="BA14" s="79"/>
-      <c r="BB14" s="79"/>
-      <c r="BC14" s="79"/>
-      <c r="BD14" s="79"/>
-      <c r="BE14" s="79"/>
-      <c r="BF14" s="79"/>
-      <c r="BG14" s="79"/>
-      <c r="BH14" s="79"/>
-      <c r="BI14" s="80"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="107"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="107"/>
+      <c r="AE14" s="107"/>
+      <c r="AF14" s="107"/>
+      <c r="AG14" s="107"/>
+      <c r="AH14" s="107"/>
+      <c r="AI14" s="107"/>
+      <c r="AJ14" s="107"/>
+      <c r="AK14" s="107"/>
+      <c r="AL14" s="107"/>
+      <c r="AM14" s="107"/>
+      <c r="AN14" s="107"/>
+      <c r="AO14" s="107"/>
+      <c r="AP14" s="107"/>
+      <c r="AQ14" s="107"/>
+      <c r="AR14" s="107"/>
+      <c r="AS14" s="107"/>
+      <c r="AT14" s="107"/>
+      <c r="AU14" s="107"/>
+      <c r="AV14" s="107"/>
+      <c r="AW14" s="107"/>
+      <c r="AX14" s="107"/>
+      <c r="AY14" s="107"/>
+      <c r="AZ14" s="107"/>
+      <c r="BA14" s="107"/>
+      <c r="BB14" s="107"/>
+      <c r="BC14" s="107"/>
+      <c r="BD14" s="107"/>
+      <c r="BE14" s="107"/>
+      <c r="BF14" s="107"/>
+      <c r="BG14" s="107"/>
+      <c r="BH14" s="107"/>
+      <c r="BI14" s="108"/>
       <c r="BJ14"/>
       <c r="BK14"/>
       <c r="BL14"/>
@@ -15315,14 +15233,14 @@
       <c r="IX14"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="BB15" s="81"/>
-      <c r="BC15" s="81"/>
-      <c r="BD15" s="81"/>
-      <c r="BE15" s="81"/>
-      <c r="BF15" s="81"/>
-      <c r="BG15" s="81"/>
-      <c r="BH15" s="81"/>
-      <c r="BI15" s="81"/>
+      <c r="BB15" s="48"/>
+      <c r="BC15" s="48"/>
+      <c r="BD15" s="48"/>
+      <c r="BE15" s="48"/>
+      <c r="BF15" s="48"/>
+      <c r="BG15" s="48"/>
+      <c r="BH15" s="48"/>
+      <c r="BI15" s="48"/>
       <c r="BJ15"/>
       <c r="BK15"/>
       <c r="BL15"/>
@@ -15522,73 +15440,73 @@
       <c r="IX15"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="101"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="101"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="101"/>
+      <c r="AJ16" s="101"/>
+      <c r="AK16" s="101"/>
+      <c r="AL16" s="101"/>
+      <c r="AM16" s="101"/>
+      <c r="AN16" s="101"/>
+      <c r="AO16" s="101"/>
+      <c r="AP16" s="101"/>
+      <c r="AQ16" s="101"/>
+      <c r="AR16" s="101"/>
+      <c r="AS16" s="101"/>
+      <c r="AT16" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="82"/>
-      <c r="AH16" s="82"/>
-      <c r="AI16" s="82"/>
-      <c r="AJ16" s="82"/>
-      <c r="AK16" s="82"/>
-      <c r="AL16" s="82"/>
-      <c r="AM16" s="82"/>
-      <c r="AN16" s="82"/>
-      <c r="AO16" s="82"/>
-      <c r="AP16" s="82"/>
-      <c r="AQ16" s="82"/>
-      <c r="AR16" s="82"/>
-      <c r="AS16" s="82"/>
-      <c r="AT16" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU16" s="82"/>
-      <c r="AV16" s="82"/>
-      <c r="AW16" s="82"/>
-      <c r="AX16" s="82"/>
-      <c r="AY16" s="82"/>
-      <c r="AZ16" s="82"/>
-      <c r="BA16" s="82"/>
-      <c r="BB16" s="82"/>
-      <c r="BC16" s="82"/>
-      <c r="BD16" s="82"/>
-      <c r="BE16" s="82"/>
-      <c r="BF16" s="82"/>
-      <c r="BG16" s="82"/>
-      <c r="BH16" s="82"/>
-      <c r="BI16" s="82"/>
+      <c r="AU16" s="101"/>
+      <c r="AV16" s="101"/>
+      <c r="AW16" s="101"/>
+      <c r="AX16" s="101"/>
+      <c r="AY16" s="101"/>
+      <c r="AZ16" s="101"/>
+      <c r="BA16" s="101"/>
+      <c r="BB16" s="101"/>
+      <c r="BC16" s="101"/>
+      <c r="BD16" s="101"/>
+      <c r="BE16" s="101"/>
+      <c r="BF16" s="101"/>
+      <c r="BG16" s="101"/>
+      <c r="BH16" s="101"/>
+      <c r="BI16" s="101"/>
       <c r="BJ16"/>
       <c r="BK16"/>
       <c r="BL16"/>
@@ -15788,69 +15706,69 @@
       <c r="IX16"/>
     </row>
     <row r="17" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="86" t="s">
-        <v>54</v>
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="52" t="s">
+        <v>46</v>
       </c>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="84"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="84"/>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="84"/>
-      <c r="AJ17" s="84"/>
-      <c r="AK17" s="84"/>
-      <c r="AL17" s="84"/>
-      <c r="AM17" s="84"/>
-      <c r="AN17" s="84"/>
-      <c r="AO17" s="84"/>
-      <c r="AP17" s="84"/>
-      <c r="AQ17" s="84"/>
-      <c r="AR17" s="84"/>
-      <c r="AS17" s="85"/>
-      <c r="AT17" s="83"/>
-      <c r="AU17" s="84"/>
-      <c r="AV17" s="84"/>
-      <c r="AW17" s="84"/>
-      <c r="AX17" s="84"/>
-      <c r="AY17" s="84"/>
-      <c r="AZ17" s="84"/>
-      <c r="BA17" s="84"/>
-      <c r="BB17" s="84"/>
-      <c r="BC17" s="84"/>
-      <c r="BD17" s="84"/>
-      <c r="BE17" s="84"/>
-      <c r="BF17" s="84"/>
-      <c r="BG17" s="84"/>
-      <c r="BH17" s="84"/>
-      <c r="BI17" s="87"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="50"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="49"/>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="50"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="50"/>
+      <c r="AZ17" s="50"/>
+      <c r="BA17" s="50"/>
+      <c r="BB17" s="50"/>
+      <c r="BC17" s="50"/>
+      <c r="BD17" s="50"/>
+      <c r="BE17" s="50"/>
+      <c r="BF17" s="50"/>
+      <c r="BG17" s="50"/>
+      <c r="BH17" s="50"/>
+      <c r="BI17" s="53"/>
       <c r="BJ17"/>
       <c r="BK17"/>
       <c r="BL17"/>
@@ -16050,69 +15968,69 @@
       <c r="IX17"/>
     </row>
     <row r="18" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="89" t="s">
-        <v>71</v>
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55" t="s">
+        <v>60</v>
       </c>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="89"/>
-      <c r="AP18" s="89"/>
-      <c r="AQ18" s="89"/>
-      <c r="AR18" s="89"/>
-      <c r="AS18" s="90"/>
-      <c r="AT18" s="88"/>
-      <c r="AU18" s="89"/>
-      <c r="AV18" s="89"/>
-      <c r="AW18" s="89"/>
-      <c r="AX18" s="89"/>
-      <c r="AY18" s="89"/>
-      <c r="AZ18" s="89"/>
-      <c r="BA18" s="89"/>
-      <c r="BB18" s="89"/>
-      <c r="BC18" s="89"/>
-      <c r="BD18" s="89"/>
-      <c r="BE18" s="89"/>
-      <c r="BF18" s="89"/>
-      <c r="BG18" s="89"/>
-      <c r="BH18" s="89"/>
-      <c r="BI18" s="91"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="55"/>
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="55"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="55"/>
+      <c r="AK18" s="55"/>
+      <c r="AL18" s="55"/>
+      <c r="AM18" s="55"/>
+      <c r="AN18" s="55"/>
+      <c r="AO18" s="55"/>
+      <c r="AP18" s="55"/>
+      <c r="AQ18" s="55"/>
+      <c r="AR18" s="55"/>
+      <c r="AS18" s="56"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="55"/>
+      <c r="AV18" s="55"/>
+      <c r="AW18" s="55"/>
+      <c r="AX18" s="55"/>
+      <c r="AY18" s="55"/>
+      <c r="AZ18" s="55"/>
+      <c r="BA18" s="55"/>
+      <c r="BB18" s="55"/>
+      <c r="BC18" s="55"/>
+      <c r="BD18" s="55"/>
+      <c r="BE18" s="55"/>
+      <c r="BF18" s="55"/>
+      <c r="BG18" s="55"/>
+      <c r="BH18" s="55"/>
+      <c r="BI18" s="57"/>
       <c r="BJ18"/>
       <c r="BK18"/>
       <c r="BL18"/>
@@ -16312,67 +16230,67 @@
       <c r="IX18"/>
     </row>
     <row r="19" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="88"/>
-      <c r="B19" s="92"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="93" t="s">
-        <v>55</v>
+      <c r="A19" s="54"/>
+      <c r="B19" s="58"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="59" t="s">
+        <v>47</v>
       </c>
       <c r="Q19" s="23"/>
       <c r="S19" s="21"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="89"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="89"/>
-      <c r="AH19" s="89"/>
-      <c r="AI19" s="89"/>
-      <c r="AJ19" s="89"/>
-      <c r="AK19" s="89"/>
-      <c r="AL19" s="89"/>
-      <c r="AM19" s="89"/>
-      <c r="AN19" s="89"/>
-      <c r="AO19" s="89"/>
-      <c r="AP19" s="89"/>
-      <c r="AQ19" s="89"/>
-      <c r="AR19" s="89"/>
-      <c r="AS19" s="90"/>
-      <c r="AT19" s="88"/>
-      <c r="AU19" s="92"/>
-      <c r="AV19" s="89"/>
-      <c r="AW19" s="89"/>
-      <c r="AX19" s="89"/>
-      <c r="AY19" s="89"/>
-      <c r="AZ19" s="89"/>
-      <c r="BA19" s="89"/>
-      <c r="BB19" s="89"/>
-      <c r="BC19" s="89"/>
-      <c r="BD19" s="89"/>
-      <c r="BE19" s="89"/>
-      <c r="BF19" s="89"/>
-      <c r="BG19" s="89"/>
-      <c r="BH19" s="89"/>
-      <c r="BI19" s="91"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="55"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="55"/>
+      <c r="AL19" s="55"/>
+      <c r="AM19" s="55"/>
+      <c r="AN19" s="55"/>
+      <c r="AO19" s="55"/>
+      <c r="AP19" s="55"/>
+      <c r="AQ19" s="55"/>
+      <c r="AR19" s="55"/>
+      <c r="AS19" s="56"/>
+      <c r="AT19" s="54"/>
+      <c r="AU19" s="58"/>
+      <c r="AV19" s="55"/>
+      <c r="AW19" s="55"/>
+      <c r="AX19" s="55"/>
+      <c r="AY19" s="55"/>
+      <c r="AZ19" s="55"/>
+      <c r="BA19" s="55"/>
+      <c r="BB19" s="55"/>
+      <c r="BC19" s="55"/>
+      <c r="BD19" s="55"/>
+      <c r="BE19" s="55"/>
+      <c r="BF19" s="55"/>
+      <c r="BG19" s="55"/>
+      <c r="BH19" s="55"/>
+      <c r="BI19" s="57"/>
       <c r="BJ19"/>
       <c r="BK19"/>
       <c r="BL19"/>
@@ -16572,68 +16490,68 @@
       <c r="IX19"/>
     </row>
     <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="88"/>
-      <c r="B20" s="92"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="88"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="58"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="54"/>
       <c r="Q20" s="22" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="R20" s="23"/>
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="89"/>
-      <c r="AF20" s="89"/>
-      <c r="AG20" s="89"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="89"/>
-      <c r="AJ20" s="89"/>
-      <c r="AK20" s="89"/>
-      <c r="AL20" s="89"/>
-      <c r="AM20" s="89"/>
-      <c r="AN20" s="89"/>
-      <c r="AO20" s="89"/>
-      <c r="AP20" s="89"/>
-      <c r="AQ20" s="89"/>
-      <c r="AR20" s="89"/>
-      <c r="AS20" s="90"/>
-      <c r="AT20" s="88"/>
-      <c r="AU20" s="92"/>
-      <c r="AV20" s="89"/>
-      <c r="AW20" s="89"/>
-      <c r="AX20" s="89"/>
-      <c r="AY20" s="89"/>
-      <c r="AZ20" s="89"/>
-      <c r="BA20" s="89"/>
-      <c r="BB20" s="89"/>
-      <c r="BC20" s="89"/>
-      <c r="BD20" s="89"/>
-      <c r="BE20" s="89"/>
-      <c r="BF20" s="89"/>
-      <c r="BG20" s="89"/>
-      <c r="BH20" s="89"/>
-      <c r="BI20" s="91"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="55"/>
+      <c r="AL20" s="55"/>
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="55"/>
+      <c r="AP20" s="55"/>
+      <c r="AQ20" s="55"/>
+      <c r="AR20" s="55"/>
+      <c r="AS20" s="56"/>
+      <c r="AT20" s="54"/>
+      <c r="AU20" s="58"/>
+      <c r="AV20" s="55"/>
+      <c r="AW20" s="55"/>
+      <c r="AX20" s="55"/>
+      <c r="AY20" s="55"/>
+      <c r="AZ20" s="55"/>
+      <c r="BA20" s="55"/>
+      <c r="BB20" s="55"/>
+      <c r="BC20" s="55"/>
+      <c r="BD20" s="55"/>
+      <c r="BE20" s="55"/>
+      <c r="BF20" s="55"/>
+      <c r="BG20" s="55"/>
+      <c r="BH20" s="55"/>
+      <c r="BI20" s="57"/>
       <c r="BJ20"/>
       <c r="BK20"/>
       <c r="BL20"/>
@@ -16833,68 +16751,68 @@
       <c r="IX20"/>
     </row>
     <row r="21" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="88"/>
-      <c r="B21" s="92"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="94" t="s">
-        <v>70</v>
+      <c r="A21" s="54"/>
+      <c r="B21" s="58"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="60" t="s">
+        <v>68</v>
       </c>
       <c r="R21" s="23"/>
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="89"/>
-      <c r="AF21" s="89"/>
-      <c r="AG21" s="89"/>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="89"/>
-      <c r="AJ21" s="89"/>
-      <c r="AK21" s="89"/>
-      <c r="AL21" s="89"/>
-      <c r="AM21" s="89"/>
-      <c r="AN21" s="89"/>
-      <c r="AO21" s="89"/>
-      <c r="AP21" s="89"/>
-      <c r="AQ21" s="89"/>
-      <c r="AR21" s="89"/>
-      <c r="AS21" s="90"/>
-      <c r="AT21" s="88"/>
-      <c r="AU21" s="92"/>
-      <c r="AV21" s="89"/>
-      <c r="AW21" s="89"/>
-      <c r="AX21" s="89"/>
-      <c r="AY21" s="89"/>
-      <c r="AZ21" s="89"/>
-      <c r="BA21" s="89"/>
-      <c r="BB21" s="89"/>
-      <c r="BC21" s="89"/>
-      <c r="BD21" s="89"/>
-      <c r="BE21" s="89"/>
-      <c r="BF21" s="89"/>
-      <c r="BG21" s="89"/>
-      <c r="BH21" s="89"/>
-      <c r="BI21" s="91"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="55"/>
+      <c r="AQ21" s="55"/>
+      <c r="AR21" s="55"/>
+      <c r="AS21" s="56"/>
+      <c r="AT21" s="54"/>
+      <c r="AU21" s="58"/>
+      <c r="AV21" s="55"/>
+      <c r="AW21" s="55"/>
+      <c r="AX21" s="55"/>
+      <c r="AY21" s="55"/>
+      <c r="AZ21" s="55"/>
+      <c r="BA21" s="55"/>
+      <c r="BB21" s="55"/>
+      <c r="BC21" s="55"/>
+      <c r="BD21" s="55"/>
+      <c r="BE21" s="55"/>
+      <c r="BF21" s="55"/>
+      <c r="BG21" s="55"/>
+      <c r="BH21" s="55"/>
+      <c r="BI21" s="57"/>
       <c r="BJ21"/>
       <c r="BK21"/>
       <c r="BL21"/>
@@ -17094,57 +17012,57 @@
       <c r="IX21"/>
     </row>
     <row r="22" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="88"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="27"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="88"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="54"/>
       <c r="Q22" s="22" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="S22" s="21"/>
-      <c r="T22" s="89"/>
+      <c r="T22" s="55"/>
       <c r="Y22" s="31"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="96"/>
-      <c r="AI22" s="96"/>
-      <c r="AJ22" s="96"/>
-      <c r="AK22" s="96"/>
-      <c r="AL22" s="96"/>
-      <c r="AM22" s="96"/>
-      <c r="AN22" s="96"/>
-      <c r="AO22" s="96"/>
-      <c r="AP22" s="96"/>
-      <c r="AQ22" s="96"/>
-      <c r="AR22" s="96"/>
-      <c r="AS22" s="97"/>
-      <c r="AT22" s="98"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="62"/>
+      <c r="AM22" s="62"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="63"/>
+      <c r="AT22" s="64"/>
       <c r="AU22" s="27"/>
-      <c r="AW22" s="89"/>
-      <c r="AX22" s="89"/>
-      <c r="AY22" s="89"/>
-      <c r="AZ22" s="89"/>
-      <c r="BA22" s="89"/>
-      <c r="BB22" s="99"/>
-      <c r="BC22" s="99"/>
-      <c r="BD22" s="99"/>
-      <c r="BE22" s="99"/>
-      <c r="BF22" s="99"/>
-      <c r="BG22" s="99"/>
-      <c r="BH22" s="99"/>
-      <c r="BI22" s="91"/>
+      <c r="AW22" s="55"/>
+      <c r="AX22" s="55"/>
+      <c r="AY22" s="55"/>
+      <c r="AZ22" s="55"/>
+      <c r="BA22" s="55"/>
+      <c r="BB22" s="65"/>
+      <c r="BC22" s="65"/>
+      <c r="BD22" s="65"/>
+      <c r="BE22" s="65"/>
+      <c r="BF22" s="65"/>
+      <c r="BG22" s="65"/>
+      <c r="BH22" s="65"/>
+      <c r="BI22" s="57"/>
       <c r="BJ22"/>
       <c r="BK22"/>
       <c r="BL22"/>
@@ -17344,57 +17262,57 @@
       <c r="IX22"/>
     </row>
     <row r="23" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="88"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="27"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="93" t="s">
-        <v>72</v>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="59" t="s">
+        <v>61</v>
       </c>
       <c r="Q23" s="22"/>
       <c r="S23" s="21"/>
-      <c r="T23" s="89"/>
+      <c r="T23" s="55"/>
       <c r="Y23" s="31"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="96"/>
-      <c r="AI23" s="96"/>
-      <c r="AJ23" s="96"/>
-      <c r="AK23" s="96"/>
-      <c r="AL23" s="96"/>
-      <c r="AM23" s="96"/>
-      <c r="AN23" s="96"/>
-      <c r="AO23" s="96"/>
-      <c r="AP23" s="96"/>
-      <c r="AQ23" s="96"/>
-      <c r="AR23" s="96"/>
-      <c r="AS23" s="97"/>
-      <c r="AT23" s="98"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="62"/>
+      <c r="AL23" s="62"/>
+      <c r="AM23" s="62"/>
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="62"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="62"/>
+      <c r="AS23" s="63"/>
+      <c r="AT23" s="64"/>
       <c r="AU23" s="27"/>
-      <c r="AW23" s="89"/>
-      <c r="AX23" s="89"/>
-      <c r="AY23" s="89"/>
-      <c r="AZ23" s="89"/>
-      <c r="BA23" s="89"/>
-      <c r="BB23" s="99"/>
-      <c r="BC23" s="99"/>
-      <c r="BD23" s="99"/>
-      <c r="BE23" s="99"/>
-      <c r="BF23" s="99"/>
-      <c r="BG23" s="99"/>
-      <c r="BH23" s="99"/>
-      <c r="BI23" s="91"/>
+      <c r="AW23" s="55"/>
+      <c r="AX23" s="55"/>
+      <c r="AY23" s="55"/>
+      <c r="AZ23" s="55"/>
+      <c r="BA23" s="55"/>
+      <c r="BB23" s="65"/>
+      <c r="BC23" s="65"/>
+      <c r="BD23" s="65"/>
+      <c r="BE23" s="65"/>
+      <c r="BF23" s="65"/>
+      <c r="BG23" s="65"/>
+      <c r="BH23" s="65"/>
+      <c r="BI23" s="57"/>
       <c r="BJ23"/>
       <c r="BK23"/>
       <c r="BL23"/>
@@ -17594,68 +17512,68 @@
       <c r="IX23"/>
     </row>
     <row r="24" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="88" t="s">
-        <v>58</v>
+      <c r="A24" s="54" t="s">
+        <v>50</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="96" t="s">
-        <v>59</v>
+      <c r="B24" s="58"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="62" t="s">
+        <v>51</v>
       </c>
-      <c r="S24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="96"/>
-      <c r="AG24" s="96"/>
-      <c r="AH24" s="96"/>
-      <c r="AI24" s="96"/>
-      <c r="AJ24" s="96"/>
-      <c r="AK24" s="96"/>
-      <c r="AL24" s="96"/>
-      <c r="AM24" s="96"/>
-      <c r="AN24" s="96"/>
-      <c r="AO24" s="96"/>
-      <c r="AP24" s="96"/>
-      <c r="AQ24" s="96"/>
-      <c r="AR24" s="96"/>
-      <c r="AS24" s="97"/>
-      <c r="AT24" s="98"/>
-      <c r="AU24" s="92"/>
-      <c r="AV24" s="89"/>
-      <c r="AW24" s="89"/>
-      <c r="AX24" s="89"/>
-      <c r="AY24" s="89"/>
-      <c r="AZ24" s="89"/>
-      <c r="BA24" s="89"/>
-      <c r="BB24" s="99"/>
-      <c r="BC24" s="99"/>
-      <c r="BD24" s="99"/>
-      <c r="BE24" s="99"/>
-      <c r="BF24" s="99"/>
-      <c r="BG24" s="99"/>
-      <c r="BH24" s="99"/>
-      <c r="BI24" s="91"/>
+      <c r="S24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="62"/>
+      <c r="AJ24" s="62"/>
+      <c r="AK24" s="62"/>
+      <c r="AL24" s="62"/>
+      <c r="AM24" s="62"/>
+      <c r="AN24" s="62"/>
+      <c r="AO24" s="62"/>
+      <c r="AP24" s="62"/>
+      <c r="AQ24" s="62"/>
+      <c r="AR24" s="62"/>
+      <c r="AS24" s="63"/>
+      <c r="AT24" s="64"/>
+      <c r="AU24" s="58"/>
+      <c r="AV24" s="55"/>
+      <c r="AW24" s="55"/>
+      <c r="AX24" s="55"/>
+      <c r="AY24" s="55"/>
+      <c r="AZ24" s="55"/>
+      <c r="BA24" s="55"/>
+      <c r="BB24" s="65"/>
+      <c r="BC24" s="65"/>
+      <c r="BD24" s="65"/>
+      <c r="BE24" s="65"/>
+      <c r="BF24" s="65"/>
+      <c r="BG24" s="65"/>
+      <c r="BH24" s="65"/>
+      <c r="BI24" s="57"/>
       <c r="BJ24"/>
       <c r="BK24"/>
       <c r="BL24"/>
@@ -17855,66 +17773,66 @@
       <c r="IX24"/>
     </row>
     <row r="25" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="88"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="96" t="s">
-        <v>60</v>
+      <c r="A25" s="54"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="62" t="s">
+        <v>52</v>
       </c>
-      <c r="S25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="96"/>
-      <c r="AG25" s="96"/>
-      <c r="AH25" s="96"/>
-      <c r="AI25" s="96"/>
-      <c r="AJ25" s="96"/>
-      <c r="AK25" s="96"/>
-      <c r="AL25" s="96"/>
-      <c r="AM25" s="96"/>
-      <c r="AN25" s="96"/>
-      <c r="AO25" s="96"/>
-      <c r="AP25" s="96"/>
-      <c r="AQ25" s="96"/>
-      <c r="AR25" s="96"/>
-      <c r="AS25" s="97"/>
-      <c r="AT25" s="98"/>
-      <c r="AU25" s="92"/>
-      <c r="AV25" s="89"/>
-      <c r="AW25" s="89"/>
-      <c r="AX25" s="89"/>
-      <c r="AY25" s="89"/>
-      <c r="AZ25" s="89"/>
-      <c r="BA25" s="89"/>
-      <c r="BB25" s="99"/>
-      <c r="BC25" s="99"/>
-      <c r="BD25" s="99"/>
-      <c r="BE25" s="99"/>
-      <c r="BF25" s="99"/>
-      <c r="BG25" s="99"/>
-      <c r="BH25" s="99"/>
-      <c r="BI25" s="91"/>
+      <c r="S25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="62"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="62"/>
+      <c r="AL25" s="62"/>
+      <c r="AM25" s="62"/>
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="62"/>
+      <c r="AP25" s="62"/>
+      <c r="AQ25" s="62"/>
+      <c r="AR25" s="62"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="64"/>
+      <c r="AU25" s="58"/>
+      <c r="AV25" s="55"/>
+      <c r="AW25" s="55"/>
+      <c r="AX25" s="55"/>
+      <c r="AY25" s="55"/>
+      <c r="AZ25" s="55"/>
+      <c r="BA25" s="55"/>
+      <c r="BB25" s="65"/>
+      <c r="BC25" s="65"/>
+      <c r="BD25" s="65"/>
+      <c r="BE25" s="65"/>
+      <c r="BF25" s="65"/>
+      <c r="BG25" s="65"/>
+      <c r="BH25" s="65"/>
+      <c r="BI25" s="57"/>
       <c r="BJ25"/>
       <c r="BK25"/>
       <c r="BL25"/>
@@ -18114,66 +18032,66 @@
       <c r="IX25"/>
     </row>
     <row r="26" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="88"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="96" t="s">
-        <v>73</v>
+      <c r="A26" s="54"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="62" t="s">
+        <v>62</v>
       </c>
-      <c r="S26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="96"/>
-      <c r="AG26" s="96"/>
-      <c r="AH26" s="96"/>
-      <c r="AI26" s="96"/>
-      <c r="AJ26" s="96"/>
-      <c r="AK26" s="96"/>
-      <c r="AL26" s="96"/>
-      <c r="AM26" s="96"/>
-      <c r="AN26" s="96"/>
-      <c r="AO26" s="96"/>
-      <c r="AP26" s="96"/>
-      <c r="AQ26" s="96"/>
-      <c r="AR26" s="96"/>
-      <c r="AS26" s="97"/>
-      <c r="AT26" s="98"/>
-      <c r="AU26" s="92"/>
-      <c r="AV26" s="89"/>
-      <c r="AW26" s="89"/>
-      <c r="AX26" s="89"/>
-      <c r="AY26" s="89"/>
-      <c r="AZ26" s="89"/>
-      <c r="BA26" s="89"/>
-      <c r="BB26" s="99"/>
-      <c r="BC26" s="99"/>
-      <c r="BD26" s="99"/>
-      <c r="BE26" s="99"/>
-      <c r="BF26" s="99"/>
-      <c r="BG26" s="99"/>
-      <c r="BH26" s="99"/>
-      <c r="BI26" s="91"/>
+      <c r="S26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="62"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="62"/>
+      <c r="AK26" s="62"/>
+      <c r="AL26" s="62"/>
+      <c r="AM26" s="62"/>
+      <c r="AN26" s="62"/>
+      <c r="AO26" s="62"/>
+      <c r="AP26" s="62"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="62"/>
+      <c r="AS26" s="63"/>
+      <c r="AT26" s="64"/>
+      <c r="AU26" s="58"/>
+      <c r="AV26" s="55"/>
+      <c r="AW26" s="55"/>
+      <c r="AX26" s="55"/>
+      <c r="AY26" s="55"/>
+      <c r="AZ26" s="55"/>
+      <c r="BA26" s="55"/>
+      <c r="BB26" s="65"/>
+      <c r="BC26" s="65"/>
+      <c r="BD26" s="65"/>
+      <c r="BE26" s="65"/>
+      <c r="BF26" s="65"/>
+      <c r="BG26" s="65"/>
+      <c r="BH26" s="65"/>
+      <c r="BI26" s="57"/>
       <c r="BJ26"/>
       <c r="BK26"/>
       <c r="BL26"/>
@@ -18373,38 +18291,38 @@
       <c r="IX26"/>
     </row>
     <row r="27" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="88"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="89" t="s">
-        <v>61</v>
+      <c r="A27" s="54"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55" t="s">
+        <v>53</v>
       </c>
       <c r="R27" s="23"/>
       <c r="S27" s="23"/>
-      <c r="T27" s="89"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="89"/>
-      <c r="AD27" s="89"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="55"/>
       <c r="AE27" s="23"/>
       <c r="AF27" s="23"/>
       <c r="AG27" s="23"/>
@@ -18412,22 +18330,22 @@
       <c r="AI27" s="23"/>
       <c r="AJ27" s="23"/>
       <c r="AK27" s="23"/>
-      <c r="AS27" s="102"/>
-      <c r="AT27" s="88"/>
-      <c r="AU27" s="92"/>
-      <c r="AW27" s="89"/>
-      <c r="AX27" s="89"/>
-      <c r="AY27" s="89"/>
-      <c r="AZ27" s="89"/>
-      <c r="BA27" s="89"/>
-      <c r="BB27" s="99"/>
-      <c r="BC27" s="99"/>
-      <c r="BD27" s="99"/>
-      <c r="BE27" s="99"/>
-      <c r="BF27" s="99"/>
-      <c r="BG27" s="99"/>
-      <c r="BH27" s="99"/>
-      <c r="BI27" s="91"/>
+      <c r="AS27" s="68"/>
+      <c r="AT27" s="54"/>
+      <c r="AU27" s="58"/>
+      <c r="AW27" s="55"/>
+      <c r="AX27" s="55"/>
+      <c r="AY27" s="55"/>
+      <c r="AZ27" s="55"/>
+      <c r="BA27" s="55"/>
+      <c r="BB27" s="65"/>
+      <c r="BC27" s="65"/>
+      <c r="BD27" s="65"/>
+      <c r="BE27" s="65"/>
+      <c r="BF27" s="65"/>
+      <c r="BG27" s="65"/>
+      <c r="BH27" s="65"/>
+      <c r="BI27" s="57"/>
       <c r="BJ27"/>
       <c r="BK27"/>
       <c r="BL27"/>
@@ -18627,28 +18545,28 @@
       <c r="IX27"/>
     </row>
     <row r="28" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="88"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="54"/>
       <c r="Q28" s="22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28" s="23"/>
-      <c r="T28" s="89"/>
+      <c r="T28" s="55"/>
       <c r="AE28" s="23"/>
       <c r="AF28" s="23"/>
       <c r="AG28" s="23"/>
@@ -18656,22 +18574,22 @@
       <c r="AI28" s="23"/>
       <c r="AJ28" s="23"/>
       <c r="AK28" s="23"/>
-      <c r="AS28" s="102"/>
-      <c r="AT28" s="88"/>
-      <c r="AU28" s="92"/>
-      <c r="AW28" s="89"/>
-      <c r="AX28" s="89"/>
-      <c r="AY28" s="89"/>
-      <c r="AZ28" s="89"/>
-      <c r="BA28" s="89"/>
-      <c r="BB28" s="99"/>
-      <c r="BC28" s="99"/>
-      <c r="BD28" s="99"/>
-      <c r="BE28" s="99"/>
-      <c r="BF28" s="99"/>
-      <c r="BG28" s="99"/>
-      <c r="BH28" s="99"/>
-      <c r="BI28" s="91"/>
+      <c r="AS28" s="68"/>
+      <c r="AT28" s="54"/>
+      <c r="AU28" s="58"/>
+      <c r="AW28" s="55"/>
+      <c r="AX28" s="55"/>
+      <c r="AY28" s="55"/>
+      <c r="AZ28" s="55"/>
+      <c r="BA28" s="55"/>
+      <c r="BB28" s="65"/>
+      <c r="BC28" s="65"/>
+      <c r="BD28" s="65"/>
+      <c r="BE28" s="65"/>
+      <c r="BF28" s="65"/>
+      <c r="BG28" s="65"/>
+      <c r="BH28" s="65"/>
+      <c r="BI28" s="57"/>
       <c r="BJ28"/>
       <c r="BK28"/>
       <c r="BL28"/>
@@ -18871,56 +18789,56 @@
       <c r="IX28"/>
     </row>
     <row r="29" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="88"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="96" t="s">
-        <v>75</v>
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62" t="s">
+        <v>64</v>
       </c>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="103"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="96"/>
-      <c r="AC29" s="96"/>
-      <c r="AD29" s="96"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="62"/>
       <c r="AR29" s="23"/>
-      <c r="AS29" s="101"/>
-      <c r="AT29" s="88"/>
-      <c r="AU29" s="92"/>
-      <c r="AV29" s="89"/>
-      <c r="AW29" s="89"/>
-      <c r="AX29" s="89"/>
-      <c r="AY29" s="89"/>
-      <c r="AZ29" s="89"/>
+      <c r="AS29" s="67"/>
+      <c r="AT29" s="54"/>
+      <c r="AU29" s="58"/>
+      <c r="AV29" s="55"/>
+      <c r="AW29" s="55"/>
+      <c r="AX29" s="55"/>
+      <c r="AY29" s="55"/>
+      <c r="AZ29" s="55"/>
       <c r="BA29" s="23"/>
-      <c r="BB29" s="99"/>
-      <c r="BC29" s="99"/>
-      <c r="BD29" s="99"/>
-      <c r="BE29" s="99"/>
-      <c r="BF29" s="99"/>
-      <c r="BG29" s="99"/>
-      <c r="BH29" s="99"/>
-      <c r="BI29" s="91"/>
+      <c r="BB29" s="65"/>
+      <c r="BC29" s="65"/>
+      <c r="BD29" s="65"/>
+      <c r="BE29" s="65"/>
+      <c r="BF29" s="65"/>
+      <c r="BG29" s="65"/>
+      <c r="BH29" s="65"/>
+      <c r="BI29" s="57"/>
       <c r="BJ29"/>
       <c r="BK29"/>
       <c r="BL29"/>
@@ -19120,56 +19038,56 @@
       <c r="IX29"/>
     </row>
     <row r="30" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="88"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104" t="s">
-        <v>76</v>
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70" t="s">
+        <v>65</v>
       </c>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="62"/>
       <c r="AR30" s="23"/>
-      <c r="AS30" s="101"/>
-      <c r="AT30" s="88"/>
-      <c r="AU30" s="92"/>
-      <c r="AV30" s="89"/>
-      <c r="AW30" s="89"/>
-      <c r="AX30" s="89"/>
-      <c r="AY30" s="89"/>
-      <c r="AZ30" s="89"/>
+      <c r="AS30" s="67"/>
+      <c r="AT30" s="54"/>
+      <c r="AU30" s="58"/>
+      <c r="AV30" s="55"/>
+      <c r="AW30" s="55"/>
+      <c r="AX30" s="55"/>
+      <c r="AY30" s="55"/>
+      <c r="AZ30" s="55"/>
       <c r="BA30" s="23"/>
-      <c r="BB30" s="99"/>
-      <c r="BC30" s="99"/>
-      <c r="BD30" s="99"/>
-      <c r="BE30" s="99"/>
-      <c r="BF30" s="99"/>
-      <c r="BG30" s="99"/>
-      <c r="BH30" s="99"/>
-      <c r="BI30" s="91"/>
+      <c r="BB30" s="65"/>
+      <c r="BC30" s="65"/>
+      <c r="BD30" s="65"/>
+      <c r="BE30" s="65"/>
+      <c r="BF30" s="65"/>
+      <c r="BG30" s="65"/>
+      <c r="BH30" s="65"/>
+      <c r="BI30" s="57"/>
       <c r="BJ30"/>
       <c r="BK30"/>
       <c r="BL30"/>
@@ -19369,56 +19287,56 @@
       <c r="IX30"/>
     </row>
     <row r="31" spans="1:258" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="88"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104" t="s">
-        <v>74</v>
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70" t="s">
+        <v>63</v>
       </c>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="96"/>
-      <c r="AD31" s="96"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="62"/>
       <c r="AR31" s="23"/>
-      <c r="AS31" s="101"/>
-      <c r="AT31" s="88"/>
-      <c r="AU31" s="92"/>
-      <c r="AV31" s="89"/>
-      <c r="AW31" s="89"/>
-      <c r="AX31" s="89"/>
-      <c r="AY31" s="89"/>
-      <c r="AZ31" s="89"/>
+      <c r="AS31" s="67"/>
+      <c r="AT31" s="54"/>
+      <c r="AU31" s="58"/>
+      <c r="AV31" s="55"/>
+      <c r="AW31" s="55"/>
+      <c r="AX31" s="55"/>
+      <c r="AY31" s="55"/>
+      <c r="AZ31" s="55"/>
       <c r="BA31" s="23"/>
-      <c r="BB31" s="99"/>
-      <c r="BC31" s="99"/>
-      <c r="BD31" s="99"/>
-      <c r="BE31" s="99"/>
-      <c r="BF31" s="99"/>
-      <c r="BG31" s="99"/>
-      <c r="BH31" s="99"/>
-      <c r="BI31" s="91"/>
+      <c r="BB31" s="65"/>
+      <c r="BC31" s="65"/>
+      <c r="BD31" s="65"/>
+      <c r="BE31" s="65"/>
+      <c r="BF31" s="65"/>
+      <c r="BG31" s="65"/>
+      <c r="BH31" s="65"/>
+      <c r="BI31" s="57"/>
       <c r="BJ31"/>
       <c r="BK31"/>
       <c r="BL31"/>
@@ -19618,56 +19536,56 @@
       <c r="IX31"/>
     </row>
     <row r="32" spans="1:258" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="88"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104" t="s">
-        <v>77</v>
+      <c r="A32" s="54"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70" t="s">
+        <v>66</v>
       </c>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="96"/>
-      <c r="AD32" s="96"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="62"/>
+      <c r="AC32" s="62"/>
+      <c r="AD32" s="62"/>
       <c r="AR32" s="23"/>
-      <c r="AS32" s="101"/>
-      <c r="AT32" s="88"/>
-      <c r="AU32" s="92"/>
-      <c r="AV32" s="89"/>
-      <c r="AW32" s="89"/>
-      <c r="AX32" s="89"/>
-      <c r="AY32" s="89"/>
-      <c r="AZ32" s="89"/>
+      <c r="AS32" s="67"/>
+      <c r="AT32" s="54"/>
+      <c r="AU32" s="58"/>
+      <c r="AV32" s="55"/>
+      <c r="AW32" s="55"/>
+      <c r="AX32" s="55"/>
+      <c r="AY32" s="55"/>
+      <c r="AZ32" s="55"/>
       <c r="BA32" s="23"/>
-      <c r="BB32" s="99"/>
-      <c r="BC32" s="99"/>
-      <c r="BD32" s="99"/>
-      <c r="BE32" s="99"/>
-      <c r="BF32" s="99"/>
-      <c r="BG32" s="99"/>
-      <c r="BH32" s="99"/>
-      <c r="BI32" s="91"/>
+      <c r="BB32" s="65"/>
+      <c r="BC32" s="65"/>
+      <c r="BD32" s="65"/>
+      <c r="BE32" s="65"/>
+      <c r="BF32" s="65"/>
+      <c r="BG32" s="65"/>
+      <c r="BH32" s="65"/>
+      <c r="BI32" s="57"/>
       <c r="BJ32"/>
       <c r="BK32"/>
       <c r="BL32"/>
@@ -19867,25 +19785,25 @@
       <c r="IX32"/>
     </row>
     <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="88"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="27"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="105" t="s">
-        <v>63</v>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="71" t="s">
+        <v>55</v>
       </c>
-      <c r="R33" s="106"/>
+      <c r="R33" s="72"/>
       <c r="S33" s="21"/>
       <c r="U33" s="23"/>
       <c r="V33" s="23"/>
@@ -19897,30 +19815,30 @@
       <c r="AB33" s="31"/>
       <c r="AC33" s="31"/>
       <c r="AD33" s="31"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="95"/>
-      <c r="AJ33" s="95"/>
-      <c r="AK33" s="95"/>
+      <c r="AE33" s="61"/>
+      <c r="AF33" s="61"/>
+      <c r="AG33" s="61"/>
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="61"/>
+      <c r="AJ33" s="61"/>
+      <c r="AK33" s="61"/>
       <c r="AL33" s="31"/>
-      <c r="AS33" s="102"/>
-      <c r="AT33" s="88"/>
-      <c r="AU33" s="92"/>
-      <c r="AW33" s="89"/>
-      <c r="AX33" s="89"/>
-      <c r="AY33" s="89"/>
-      <c r="AZ33" s="89"/>
-      <c r="BA33" s="89"/>
-      <c r="BB33" s="99"/>
-      <c r="BC33" s="99"/>
-      <c r="BD33" s="99"/>
-      <c r="BE33" s="99"/>
-      <c r="BF33" s="99"/>
-      <c r="BG33" s="99"/>
-      <c r="BH33" s="99"/>
-      <c r="BI33" s="91"/>
+      <c r="AS33" s="68"/>
+      <c r="AT33" s="54"/>
+      <c r="AU33" s="58"/>
+      <c r="AW33" s="55"/>
+      <c r="AX33" s="55"/>
+      <c r="AY33" s="55"/>
+      <c r="AZ33" s="55"/>
+      <c r="BA33" s="55"/>
+      <c r="BB33" s="65"/>
+      <c r="BC33" s="65"/>
+      <c r="BD33" s="65"/>
+      <c r="BE33" s="65"/>
+      <c r="BF33" s="65"/>
+      <c r="BG33" s="65"/>
+      <c r="BH33" s="65"/>
+      <c r="BI33" s="57"/>
       <c r="BJ33"/>
       <c r="BK33"/>
       <c r="BL33"/>
@@ -20120,70 +20038,70 @@
       <c r="IX33"/>
     </row>
     <row r="34" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="88"/>
-      <c r="B34" s="92"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="93" t="s">
-        <v>64</v>
+      <c r="A34" s="54"/>
+      <c r="B34" s="58"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="59" t="s">
+        <v>56</v>
       </c>
       <c r="Q34" s="22"/>
       <c r="R34" s="23"/>
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="89"/>
-      <c r="AA34" s="89"/>
-      <c r="AB34" s="89"/>
-      <c r="AC34" s="89"/>
-      <c r="AD34" s="89"/>
-      <c r="AE34" s="89"/>
-      <c r="AF34" s="89"/>
-      <c r="AG34" s="89"/>
-      <c r="AH34" s="89"/>
-      <c r="AI34" s="89"/>
-      <c r="AJ34" s="89"/>
-      <c r="AK34" s="89"/>
-      <c r="AL34" s="89"/>
-      <c r="AM34" s="89"/>
-      <c r="AN34" s="89"/>
-      <c r="AO34" s="89"/>
-      <c r="AP34" s="89"/>
-      <c r="AQ34" s="89"/>
-      <c r="AR34" s="89"/>
-      <c r="AS34" s="90"/>
-      <c r="AT34" s="88" t="s">
-        <v>65</v>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="55"/>
+      <c r="AB34" s="55"/>
+      <c r="AC34" s="55"/>
+      <c r="AD34" s="55"/>
+      <c r="AE34" s="55"/>
+      <c r="AF34" s="55"/>
+      <c r="AG34" s="55"/>
+      <c r="AH34" s="55"/>
+      <c r="AI34" s="55"/>
+      <c r="AJ34" s="55"/>
+      <c r="AK34" s="55"/>
+      <c r="AL34" s="55"/>
+      <c r="AM34" s="55"/>
+      <c r="AN34" s="55"/>
+      <c r="AO34" s="55"/>
+      <c r="AP34" s="55"/>
+      <c r="AQ34" s="55"/>
+      <c r="AR34" s="55"/>
+      <c r="AS34" s="56"/>
+      <c r="AT34" s="54" t="s">
+        <v>57</v>
       </c>
-      <c r="AU34" s="92"/>
-      <c r="AV34" s="89"/>
-      <c r="AW34" s="89"/>
-      <c r="AX34" s="89"/>
-      <c r="AY34" s="89"/>
-      <c r="AZ34" s="89"/>
-      <c r="BA34" s="89"/>
-      <c r="BB34" s="89"/>
-      <c r="BC34" s="89"/>
-      <c r="BD34" s="89"/>
-      <c r="BE34" s="89"/>
-      <c r="BF34" s="89"/>
-      <c r="BG34" s="89"/>
-      <c r="BH34" s="89"/>
-      <c r="BI34" s="91"/>
+      <c r="AU34" s="58"/>
+      <c r="AV34" s="55"/>
+      <c r="AW34" s="55"/>
+      <c r="AX34" s="55"/>
+      <c r="AY34" s="55"/>
+      <c r="AZ34" s="55"/>
+      <c r="BA34" s="55"/>
+      <c r="BB34" s="55"/>
+      <c r="BC34" s="55"/>
+      <c r="BD34" s="55"/>
+      <c r="BE34" s="55"/>
+      <c r="BF34" s="55"/>
+      <c r="BG34" s="55"/>
+      <c r="BH34" s="55"/>
+      <c r="BI34" s="57"/>
       <c r="BJ34"/>
       <c r="BK34"/>
       <c r="BL34"/>
@@ -20383,66 +20301,66 @@
       <c r="IX34"/>
     </row>
     <row r="35" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="88"/>
-      <c r="B35" s="92"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="89"/>
-      <c r="R35" s="89"/>
-      <c r="S35" s="89"/>
-      <c r="T35" s="89"/>
-      <c r="U35" s="89"/>
-      <c r="V35" s="89"/>
-      <c r="W35" s="89"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="89"/>
-      <c r="AA35" s="107"/>
-      <c r="AB35" s="89"/>
-      <c r="AC35" s="89"/>
-      <c r="AD35" s="89"/>
-      <c r="AE35" s="89"/>
-      <c r="AF35" s="89"/>
-      <c r="AG35" s="89"/>
-      <c r="AH35" s="89"/>
-      <c r="AI35" s="89"/>
-      <c r="AJ35" s="89"/>
-      <c r="AK35" s="89"/>
-      <c r="AL35" s="89"/>
-      <c r="AM35" s="89"/>
-      <c r="AN35" s="89"/>
-      <c r="AO35" s="89"/>
-      <c r="AP35" s="89"/>
-      <c r="AQ35" s="89"/>
-      <c r="AR35" s="89"/>
-      <c r="AS35" s="90"/>
-      <c r="AT35" s="88"/>
-      <c r="AU35" s="92"/>
-      <c r="AV35" s="89"/>
-      <c r="AW35" s="89"/>
-      <c r="AX35" s="89"/>
-      <c r="AY35" s="89"/>
-      <c r="AZ35" s="89"/>
-      <c r="BA35" s="89"/>
-      <c r="BB35" s="89"/>
-      <c r="BC35" s="89"/>
-      <c r="BD35" s="89"/>
-      <c r="BE35" s="89"/>
-      <c r="BF35" s="89"/>
-      <c r="BG35" s="89"/>
-      <c r="BH35" s="89"/>
-      <c r="BI35" s="91"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="58"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
+      <c r="AA35" s="73"/>
+      <c r="AB35" s="55"/>
+      <c r="AC35" s="55"/>
+      <c r="AD35" s="55"/>
+      <c r="AE35" s="55"/>
+      <c r="AF35" s="55"/>
+      <c r="AG35" s="55"/>
+      <c r="AH35" s="55"/>
+      <c r="AI35" s="55"/>
+      <c r="AJ35" s="55"/>
+      <c r="AK35" s="55"/>
+      <c r="AL35" s="55"/>
+      <c r="AM35" s="55"/>
+      <c r="AN35" s="55"/>
+      <c r="AO35" s="55"/>
+      <c r="AP35" s="55"/>
+      <c r="AQ35" s="55"/>
+      <c r="AR35" s="55"/>
+      <c r="AS35" s="56"/>
+      <c r="AT35" s="54"/>
+      <c r="AU35" s="58"/>
+      <c r="AV35" s="55"/>
+      <c r="AW35" s="55"/>
+      <c r="AX35" s="55"/>
+      <c r="AY35" s="55"/>
+      <c r="AZ35" s="55"/>
+      <c r="BA35" s="55"/>
+      <c r="BB35" s="55"/>
+      <c r="BC35" s="55"/>
+      <c r="BD35" s="55"/>
+      <c r="BE35" s="55"/>
+      <c r="BF35" s="55"/>
+      <c r="BG35" s="55"/>
+      <c r="BH35" s="55"/>
+      <c r="BI35" s="57"/>
       <c r="BJ35"/>
       <c r="BK35"/>
       <c r="BL35"/>
@@ -20642,55 +20560,55 @@
       <c r="IX35"/>
     </row>
     <row r="36" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="88"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="27"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="88"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="54"/>
       <c r="Q36" s="22"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="108"/>
+      <c r="T36" s="74"/>
       <c r="Y36" s="31"/>
-      <c r="AE36" s="95"/>
-      <c r="AF36" s="95"/>
-      <c r="AG36" s="95"/>
-      <c r="AH36" s="96"/>
-      <c r="AI36" s="96"/>
-      <c r="AJ36" s="96"/>
-      <c r="AK36" s="96"/>
-      <c r="AL36" s="96"/>
-      <c r="AM36" s="96"/>
-      <c r="AN36" s="96"/>
-      <c r="AO36" s="96"/>
-      <c r="AP36" s="96"/>
-      <c r="AQ36" s="96"/>
-      <c r="AR36" s="96"/>
-      <c r="AS36" s="97"/>
-      <c r="AT36" s="98"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="62"/>
+      <c r="AI36" s="62"/>
+      <c r="AJ36" s="62"/>
+      <c r="AK36" s="62"/>
+      <c r="AL36" s="62"/>
+      <c r="AM36" s="62"/>
+      <c r="AN36" s="62"/>
+      <c r="AO36" s="62"/>
+      <c r="AP36" s="62"/>
+      <c r="AQ36" s="62"/>
+      <c r="AR36" s="62"/>
+      <c r="AS36" s="63"/>
+      <c r="AT36" s="64"/>
       <c r="AU36" s="27"/>
-      <c r="AW36" s="89"/>
-      <c r="AX36" s="89"/>
-      <c r="AY36" s="89"/>
-      <c r="AZ36" s="89"/>
-      <c r="BA36" s="89"/>
-      <c r="BB36" s="99"/>
-      <c r="BC36" s="99"/>
-      <c r="BD36" s="99"/>
-      <c r="BE36" s="99"/>
-      <c r="BF36" s="99"/>
-      <c r="BG36" s="99"/>
-      <c r="BH36" s="99"/>
-      <c r="BI36" s="91"/>
+      <c r="AW36" s="55"/>
+      <c r="AX36" s="55"/>
+      <c r="AY36" s="55"/>
+      <c r="AZ36" s="55"/>
+      <c r="BA36" s="55"/>
+      <c r="BB36" s="65"/>
+      <c r="BC36" s="65"/>
+      <c r="BD36" s="65"/>
+      <c r="BE36" s="65"/>
+      <c r="BF36" s="65"/>
+      <c r="BG36" s="65"/>
+      <c r="BH36" s="65"/>
+      <c r="BI36" s="57"/>
       <c r="BJ36"/>
       <c r="BK36"/>
       <c r="BL36"/>
@@ -20957,12 +20875,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -21094,32 +21021,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="75fae816-41bf-471e-909f-5205fc9f8b57"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="75fae816-41bf-471e-909f-5205fc9f8b57"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11CFAB00-E59E-479F-AE56-68D6BEAC86FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21135,12 +21061,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>